--- a/data/ARK.xlsx
+++ b/data/ARK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
     <t>Ticker</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Shares_12-31-2020</t>
+    <t>Shares_1-4-2021</t>
   </si>
   <si>
     <t>Market Value($)</t>
@@ -34,12 +34,12 @@
     <t>TSLA</t>
   </si>
   <si>
+    <t>TDOC</t>
+  </si>
+  <si>
     <t>ROKU</t>
   </si>
   <si>
-    <t>TDOC</t>
-  </si>
-  <si>
     <t>CRSP</t>
   </si>
   <si>
@@ -52,12 +52,12 @@
     <t>PSTG</t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>TWST</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>PACB</t>
   </si>
   <si>
@@ -82,18 +82,18 @@
     <t>TWLO</t>
   </si>
   <si>
+    <t>NTLA</t>
+  </si>
+  <si>
+    <t>TREE UW</t>
+  </si>
+  <si>
     <t>SHOP</t>
   </si>
   <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>TREE UW</t>
-  </si>
-  <si>
-    <t>NTLA</t>
-  </si>
-  <si>
     <t>BIDU</t>
   </si>
   <si>
@@ -103,108 +103,108 @@
     <t>MTLS</t>
   </si>
   <si>
+    <t>TSM</t>
+  </si>
+  <si>
     <t>TWOU</t>
   </si>
   <si>
+    <t>TCEHY</t>
+  </si>
+  <si>
     <t>VCYT</t>
   </si>
   <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>TCEHY</t>
-  </si>
-  <si>
     <t>PD</t>
   </si>
   <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>PINS</t>
+  </si>
+  <si>
     <t>BEKE</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>ZM</t>
+    <t>NTDOY</t>
   </si>
   <si>
     <t>U</t>
   </si>
   <si>
-    <t>PINS</t>
-  </si>
-  <si>
-    <t>NTDOY</t>
+    <t>MCRB</t>
+  </si>
+  <si>
+    <t>CDNA</t>
   </si>
   <si>
     <t>SPLK</t>
   </si>
   <si>
-    <t>MCRB</t>
-  </si>
-  <si>
-    <t>CDNA</t>
-  </si>
-  <si>
     <t>FATE</t>
   </si>
   <si>
+    <t>REGN</t>
+  </si>
+  <si>
     <t>SNPS</t>
   </si>
   <si>
+    <t>RHHBY</t>
+  </si>
+  <si>
+    <t>IRDM</t>
+  </si>
+  <si>
     <t>PSNL</t>
   </si>
   <si>
-    <t>REGN</t>
-  </si>
-  <si>
-    <t>IRDM</t>
-  </si>
-  <si>
-    <t>RHHBY</t>
-  </si>
-  <si>
     <t>NSTG</t>
   </si>
   <si>
+    <t>NVS</t>
+  </si>
+  <si>
     <t>HUYA</t>
   </si>
   <si>
-    <t>NVS</t>
+    <t>GBTC</t>
   </si>
   <si>
     <t>CGEN</t>
   </si>
   <si>
-    <t>GBTC</t>
+    <t>ARCT UQ</t>
+  </si>
+  <si>
+    <t>CERS</t>
   </si>
   <si>
     <t>VRTX</t>
   </si>
   <si>
-    <t>CERS</t>
-  </si>
-  <si>
     <t>SSYS</t>
   </si>
   <si>
     <t>FB</t>
   </si>
   <si>
-    <t>ARCT UQ</t>
+    <t>CLLS</t>
   </si>
   <si>
     <t>SNAP</t>
   </si>
   <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
     <t>MELI</t>
   </si>
   <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>CLLS</t>
-  </si>
-  <si>
     <t>TAK UN</t>
   </si>
   <si>
@@ -220,66 +220,66 @@
     <t>IONS</t>
   </si>
   <si>
+    <t>NVDA</t>
+  </si>
+  <si>
     <t>BLI</t>
   </si>
   <si>
     <t>BABA</t>
   </si>
   <si>
+    <t>NFLX</t>
+  </si>
+  <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>NFLX</t>
-  </si>
-  <si>
     <t>SDGR</t>
   </si>
   <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>FSLY</t>
+  </si>
+  <si>
     <t>ACCD</t>
   </si>
   <si>
-    <t>FSLY</t>
-  </si>
-  <si>
     <t>BEAM</t>
   </si>
   <si>
+    <t>VEEV</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>SYRS</t>
+  </si>
+  <si>
     <t>ADPT</t>
   </si>
   <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>SYRS</t>
-  </si>
-  <si>
-    <t>TMO</t>
-  </si>
-  <si>
     <t>CDXS</t>
   </si>
   <si>
-    <t>VEEV</t>
+    <t>TRMB</t>
+  </si>
+  <si>
+    <t>AQB</t>
+  </si>
+  <si>
+    <t>TXG</t>
+  </si>
+  <si>
+    <t>ADYEN</t>
   </si>
   <si>
     <t>NNDM</t>
   </si>
   <si>
-    <t>AQB</t>
-  </si>
-  <si>
-    <t>TRMB</t>
-  </si>
-  <si>
-    <t>TXG</t>
-  </si>
-  <si>
-    <t>ADYEN</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
@@ -289,87 +289,87 @@
     <t>GH</t>
   </si>
   <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>PTON</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>TTD</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
     <t>LC</t>
   </si>
   <si>
-    <t>PTON</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>TTD</t>
-  </si>
-  <si>
-    <t>GOOG</t>
+    <t>KTOS</t>
   </si>
   <si>
     <t>FLIR</t>
   </si>
   <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>KTOS</t>
-  </si>
-  <si>
     <t>HUBS</t>
   </si>
   <si>
     <t>NET</t>
   </si>
   <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>NXPI</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
     <t>CRWD</t>
   </si>
   <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>3690</t>
-  </si>
-  <si>
     <t>ADYEY</t>
   </si>
   <si>
-    <t>NXPI</t>
-  </si>
-  <si>
     <t>TEAM</t>
   </si>
   <si>
     <t>CRM</t>
   </si>
   <si>
+    <t>BYDDY</t>
+  </si>
+  <si>
     <t>OKTA</t>
   </si>
   <si>
-    <t>BYDDY</t>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>LSPD</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>LSPD</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>KMTUY</t>
   </si>
   <si>
     <t>SRPT</t>
   </si>
   <si>
+    <t>WKHS</t>
+  </si>
+  <si>
+    <t>4689</t>
+  </si>
+  <si>
     <t>WDAY</t>
   </si>
   <si>
-    <t>4689</t>
-  </si>
-  <si>
-    <t>WKHS</t>
-  </si>
-  <si>
     <t>6060</t>
   </si>
   <si>
@@ -379,21 +379,21 @@
     <t>INTU</t>
   </si>
   <si>
+    <t>SPCE</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
     <t>PDD</t>
   </si>
   <si>
-    <t>SPCE</t>
-  </si>
-  <si>
-    <t>PLTR</t>
+    <t>DSY</t>
   </si>
   <si>
     <t>LGVW</t>
   </si>
   <si>
-    <t>DSY</t>
-  </si>
-  <si>
     <t>TER</t>
   </si>
   <si>
@@ -406,39 +406,39 @@
     <t>PSTI</t>
   </si>
   <si>
+    <t>NIU</t>
+  </si>
+  <si>
     <t>SCHW</t>
   </si>
   <si>
-    <t>NIU</t>
-  </si>
-  <si>
     <t>MASS</t>
   </si>
   <si>
+    <t>XLNX</t>
+  </si>
+  <si>
+    <t>RPTX</t>
+  </si>
+  <si>
     <t>SURF</t>
   </si>
   <si>
-    <t>XLNX</t>
+    <t>EVGN</t>
+  </si>
+  <si>
+    <t>4477</t>
+  </si>
+  <si>
+    <t>TCS LI</t>
   </si>
   <si>
     <t>ADSK</t>
   </si>
   <si>
-    <t>RPTX</t>
-  </si>
-  <si>
-    <t>TCS LI</t>
-  </si>
-  <si>
-    <t>EVGN</t>
-  </si>
-  <si>
     <t>ISRG</t>
   </si>
   <si>
-    <t>4477</t>
-  </si>
-  <si>
     <t>9923</t>
   </si>
   <si>
@@ -484,21 +484,24 @@
     <t>PTC</t>
   </si>
   <si>
+    <t>STMN</t>
+  </si>
+  <si>
+    <t>RSW</t>
+  </si>
+  <si>
     <t>ALTR</t>
   </si>
   <si>
-    <t>STMN</t>
-  </si>
-  <si>
     <t>ALMDG</t>
   </si>
   <si>
-    <t>RSW</t>
-  </si>
-  <si>
     <t>MSFT</t>
   </si>
   <si>
+    <t>SKLZ</t>
+  </si>
+  <si>
     <t>KSPI</t>
   </si>
   <si>
@@ -520,39 +523,39 @@
     <t>GE</t>
   </si>
   <si>
+    <t>UCTT</t>
+  </si>
+  <si>
     <t>AJRD</t>
   </si>
   <si>
     <t>OERL</t>
   </si>
   <si>
+    <t>BDT</t>
+  </si>
+  <si>
     <t>ARNC</t>
   </si>
   <si>
-    <t>UCTT</t>
-  </si>
-  <si>
-    <t>BDT</t>
+    <t>ML</t>
   </si>
   <si>
     <t>MOG/A</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>LECO</t>
   </si>
   <si>
     <t>SIE</t>
   </si>
   <si>
+    <t>MDT UN</t>
+  </si>
+  <si>
     <t>SYK</t>
   </si>
   <si>
-    <t>MDT UN</t>
-  </si>
-  <si>
     <t>NUVA</t>
   </si>
   <si>
@@ -568,15 +571,15 @@
     <t>CRS</t>
   </si>
   <si>
+    <t>SGL</t>
+  </si>
+  <si>
+    <t>VOE</t>
+  </si>
+  <si>
     <t>HXL</t>
   </si>
   <si>
-    <t>SGL</t>
-  </si>
-  <si>
-    <t>VOE</t>
-  </si>
-  <si>
     <t>SAND</t>
   </si>
   <si>
@@ -601,24 +604,24 @@
     <t>AKE</t>
   </si>
   <si>
+    <t>DSM</t>
+  </si>
+  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>DSM</t>
-  </si>
-  <si>
     <t>6618</t>
   </si>
   <si>
     <t>TESLA INCTESLA INCTESLA INC</t>
   </si>
   <si>
+    <t>TELADOC HEALTH INCTELADOC HEALTH INCTELADOC HEALTH INCTELADOC HEALTH INC</t>
+  </si>
+  <si>
     <t>ROKU INCROKU INC</t>
   </si>
   <si>
-    <t>TELADOC HEALTH INCTELADOC HEALTH INCTELADOC HEALTH INCTELADOC HEALTH INC</t>
-  </si>
-  <si>
     <t>CRISPR THERAPEUTICS AGCRISPR THERAPEUTICS AG</t>
   </si>
   <si>
@@ -631,12 +634,12 @@
     <t>PURE STORAGE INC - CLASS APURE STORAGE INC - CLASS APURE STORAGE INC - CLASS A</t>
   </si>
   <si>
+    <t>ZILLOW GROUP INC - CZILLOW GROUP INC - CZILLOW GROUP INC - C</t>
+  </si>
+  <si>
     <t>TWIST BIOSCIENCE CORPTWIST BIOSCIENCE CORP</t>
   </si>
   <si>
-    <t>ZILLOW GROUP INC - CZILLOW GROUP INC - CZILLOW GROUP INC - C</t>
-  </si>
-  <si>
     <t>PACIFIC BIOSCIENCES OF CALIFPACIFIC BIOSCIENCES OF CALIF</t>
   </si>
   <si>
@@ -661,18 +664,18 @@
     <t>TWILIO INC - ATWILIO INC - ATWILIO INC - A</t>
   </si>
   <si>
+    <t>INTELLIA THERAPEUTICS INCINTELLIA THERAPEUTICS INC</t>
+  </si>
+  <si>
+    <t>LENDINGTREE INCLENDINGTREE INCLENDINGTREE INC</t>
+  </si>
+  <si>
     <t>SHOPIFY INC - CLASS ASHOPIFY INC - CLASS ASHOPIFY INC - CLASS A</t>
   </si>
   <si>
     <t>INTERCONTINENTAL EXCHANGE ININTERCONTINENTAL EXCHANGE ININTERCONTINENTAL EXCHANGE IN</t>
   </si>
   <si>
-    <t>LENDINGTREE INCLENDINGTREE INCLENDINGTREE INC</t>
-  </si>
-  <si>
-    <t>INTELLIA THERAPEUTICS INCINTELLIA THERAPEUTICS INC</t>
-  </si>
-  <si>
     <t>BAIDU INC - SPON ADRBAIDU INC - SPON ADRBAIDU INC - SPON ADR</t>
   </si>
   <si>
@@ -682,108 +685,108 @@
     <t>MATERIALISE NV-ADRMATERIALISE NV-ADRMATERIALISE NV-ADR</t>
   </si>
   <si>
+    <t>TAIWAN SEMICONDUCTOR-SP ADRTAIWAN SEMICONDUCTOR-SP ADRTAIWAN SEMICONDUCTOR-SP ADRTAIWAN SEMICONDUCTOR-SP ADR</t>
+  </si>
+  <si>
     <t>2U INC2U INC2U INC</t>
   </si>
   <si>
+    <t>TENCENT HOLDINGS LTD-UNS ADRTENCENT HOLDINGS LTD-UNS ADRTENCENT HOLDINGS LTD-UNS ADRTENCENT HOLDINGS LTD-UNS ADR</t>
+  </si>
+  <si>
     <t>VERACYTE INCVERACYTE INCVERACYTE INC</t>
   </si>
   <si>
-    <t>TAIWAN SEMICONDUCTOR-SP ADRTAIWAN SEMICONDUCTOR-SP ADRTAIWAN SEMICONDUCTOR-SP ADRTAIWAN SEMICONDUCTOR-SP ADR</t>
-  </si>
-  <si>
-    <t>TENCENT HOLDINGS LTD-UNS ADRTENCENT HOLDINGS LTD-UNS ADRTENCENT HOLDINGS LTD-UNS ADRTENCENT HOLDINGS LTD-UNS ADR</t>
-  </si>
-  <si>
     <t>PAGERDUTY INCPAGERDUTY INC</t>
   </si>
   <si>
+    <t>ZOOM VIDEO COMMUNICATIONS-AZOOM VIDEO COMMUNICATIONS-A</t>
+  </si>
+  <si>
+    <t>SEA LTD-ADRSEA LTD-ADRSEA LTD-ADR</t>
+  </si>
+  <si>
+    <t>PINTEREST INC- CLASS APINTEREST INC- CLASS APINTEREST INC- CLASS A</t>
+  </si>
+  <si>
     <t>KE HOLDINGS INCKE HOLDINGS INCKE HOLDINGS INC</t>
   </si>
   <si>
-    <t>SEA LTD-ADRSEA LTD-ADRSEA LTD-ADR</t>
-  </si>
-  <si>
-    <t>ZOOM VIDEO COMMUNICATIONS-AZOOM VIDEO COMMUNICATIONS-A</t>
+    <t>NINTENDO CO LTD-UNSPONS ADRNINTENDO CO LTD-UNSPONS ADR</t>
   </si>
   <si>
     <t>UNITY SOFTWARE INCUNITY SOFTWARE INC</t>
   </si>
   <si>
-    <t>PINTEREST INC- CLASS APINTEREST INC- CLASS APINTEREST INC- CLASS A</t>
-  </si>
-  <si>
-    <t>NINTENDO CO LTD-UNSPONS ADRNINTENDO CO LTD-UNSPONS ADR</t>
+    <t>SERES THERAPEUTICS INCSERES THERAPEUTICS INC</t>
+  </si>
+  <si>
+    <t>CAREDX INC</t>
   </si>
   <si>
     <t>SPLUNK INCSPLUNK INCSPLUNK INCSPLUNK INC</t>
   </si>
   <si>
-    <t>SERES THERAPEUTICS INCSERES THERAPEUTICS INC</t>
-  </si>
-  <si>
-    <t>CAREDX INC</t>
-  </si>
-  <si>
     <t>FATE THERAPEUTICS INC</t>
   </si>
   <si>
+    <t>REGENERON PHARMACEUTICALS</t>
+  </si>
+  <si>
     <t>SYNOPSYS INCSYNOPSYS INCSYNOPSYS INC</t>
   </si>
   <si>
+    <t>ROCHE HOLDINGS LTD-SPONS ADR</t>
+  </si>
+  <si>
+    <t>IRIDIUM COMMUNICATIONS INCIRIDIUM COMMUNICATIONS INC</t>
+  </si>
+  <si>
     <t>PERSONALIS INC</t>
   </si>
   <si>
-    <t>REGENERON PHARMACEUTICALS</t>
-  </si>
-  <si>
-    <t>IRIDIUM COMMUNICATIONS INCIRIDIUM COMMUNICATIONS INC</t>
-  </si>
-  <si>
-    <t>ROCHE HOLDINGS LTD-SPONS ADR</t>
-  </si>
-  <si>
     <t>NANOSTRING TECHNOLOGIES INCNANOSTRING TECHNOLOGIES INC</t>
   </si>
   <si>
+    <t>NOVARTIS AG-SPONSORED ADR</t>
+  </si>
+  <si>
     <t>HUYA INC-ADRHUYA INC-ADR</t>
   </si>
   <si>
-    <t>NOVARTIS AG-SPONSORED ADR</t>
+    <t>GRAYSCALE BITCOIN TRUST BTC</t>
   </si>
   <si>
     <t>COMPUGEN LTDCOMPUGEN LTD</t>
   </si>
   <si>
-    <t>GRAYSCALE BITCOIN TRUST BTC</t>
+    <t>ARCTURUS THERAPEUTICS HOLDIN</t>
+  </si>
+  <si>
+    <t>CERUS CORPCERUS CORP</t>
   </si>
   <si>
     <t>VERTEX PHARMACEUTICALS INC</t>
   </si>
   <si>
-    <t>CERUS CORPCERUS CORP</t>
-  </si>
-  <si>
     <t>STRATASYS LTDSTRATASYS LTDSTRATASYS LTD</t>
   </si>
   <si>
     <t>FACEBOOK INC-CLASS AFACEBOOK INC-CLASS A</t>
   </si>
   <si>
-    <t>ARCTURUS THERAPEUTICS HOLDIN</t>
+    <t>CELLECTIS - ADR</t>
   </si>
   <si>
     <t>SNAP INC - ASNAP INC - A</t>
   </si>
   <si>
+    <t>ALPHABET INC-CL A</t>
+  </si>
+  <si>
     <t>MERCADOLIBRE INCMERCADOLIBRE INC</t>
   </si>
   <si>
-    <t>ALPHABET INC-CL A</t>
-  </si>
-  <si>
-    <t>CELLECTIS - ADR</t>
-  </si>
-  <si>
     <t>TAKEDA PHARMACEUTIC-SP ADR</t>
   </si>
   <si>
@@ -799,66 +802,66 @@
     <t>IONIS PHARMACEUTICALS INC</t>
   </si>
   <si>
+    <t>NVIDIA CORPNVIDIA CORPNVIDIA CORP</t>
+  </si>
+  <si>
     <t>BERKELEY LIGHTS INC</t>
   </si>
   <si>
     <t>ALIBABA GROUP HOLDING-SP ADRALIBABA GROUP HOLDING-SP ADR</t>
   </si>
   <si>
+    <t>NETFLIX INC</t>
+  </si>
+  <si>
     <t>APPLE INCAPPLE INCAPPLE INC</t>
   </si>
   <si>
-    <t>NETFLIX INC</t>
-  </si>
-  <si>
     <t>SCHRODINGER INC</t>
   </si>
   <si>
+    <t>OPENDOOR TECHNOLOGIES INCOPENDOOR TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>FASTLY INC - CLASS A</t>
+  </si>
+  <si>
     <t>ACCOLADE INC</t>
   </si>
   <si>
-    <t>FASTLY INC - CLASS A</t>
-  </si>
-  <si>
     <t>BEAM THERAPEUTICS INC</t>
   </si>
   <si>
+    <t>VEEVA SYSTEMS INC-CLASS A</t>
+  </si>
+  <si>
+    <t>THERMO FISHER SCIENTIFIC INC</t>
+  </si>
+  <si>
+    <t>SYROS PHARMACEUTICALS INCSYROS PHARMACEUTICALS INC</t>
+  </si>
+  <si>
     <t>ADAPTIVE BIOTECHNOLOGIES</t>
   </si>
   <si>
-    <t>OPENDOOR TECHNOLOGIES INCOPENDOOR TECHNOLOGIES INC</t>
-  </si>
-  <si>
-    <t>NVIDIA CORPNVIDIA CORPNVIDIA CORP</t>
-  </si>
-  <si>
-    <t>SYROS PHARMACEUTICALS INCSYROS PHARMACEUTICALS INC</t>
-  </si>
-  <si>
-    <t>THERMO FISHER SCIENTIFIC INC</t>
-  </si>
-  <si>
     <t>CODEXIS INC</t>
   </si>
   <si>
-    <t>VEEVA SYSTEMS INC-CLASS A</t>
+    <t>TRIMBLE INCTRIMBLE INC</t>
+  </si>
+  <si>
+    <t>AQUABOUNTY TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>10X GENOMICS INC-CLASS A</t>
+  </si>
+  <si>
+    <t>ADYEN NV</t>
   </si>
   <si>
     <t>NANO DIMENSION LTD - ADRNANO DIMENSION LTD - ADR</t>
   </si>
   <si>
-    <t>AQUABOUNTY TECHNOLOGIES</t>
-  </si>
-  <si>
-    <t>TRIMBLE INCTRIMBLE INC</t>
-  </si>
-  <si>
-    <t>10X GENOMICS INC-CLASS A</t>
-  </si>
-  <si>
-    <t>ADYEN NV</t>
-  </si>
-  <si>
     <t>AMAZON.COM INCAMAZON.COM INC</t>
   </si>
   <si>
@@ -868,87 +871,87 @@
     <t>GUARDANT HEALTH INC</t>
   </si>
   <si>
+    <t>DEERE &amp; CO</t>
+  </si>
+  <si>
+    <t>PELOTON INTERACTIVE INC-A</t>
+  </si>
+  <si>
+    <t>ALPHABET INC-CL C</t>
+  </si>
+  <si>
+    <t>TRADE DESK INC/THE -CLASS A</t>
+  </si>
+  <si>
+    <t>AGORA INC-ADR</t>
+  </si>
+  <si>
     <t>LENDINGCLUB CORPLENDINGCLUB CORP</t>
   </si>
   <si>
-    <t>PELOTON INTERACTIVE INC-A</t>
-  </si>
-  <si>
-    <t>DEERE &amp; CO</t>
-  </si>
-  <si>
-    <t>TRADE DESK INC/THE -CLASS A</t>
-  </si>
-  <si>
-    <t>ALPHABET INC-CL C</t>
+    <t>KRATOS DEFENSE &amp; SECURITY</t>
   </si>
   <si>
     <t>FLIR SYSTEMS INC</t>
   </si>
   <si>
-    <t>AGORA INC-ADR</t>
-  </si>
-  <si>
-    <t>KRATOS DEFENSE &amp; SECURITY</t>
-  </si>
-  <si>
     <t>HUBSPOT INC</t>
   </si>
   <si>
     <t>CLOUDFLARE INC - CLASS A</t>
   </si>
   <si>
+    <t>MEITUAN-CLASS B</t>
+  </si>
+  <si>
+    <t>NXP SEMICONDUCTORS NV</t>
+  </si>
+  <si>
+    <t>ADOBE INC</t>
+  </si>
+  <si>
     <t>CROWDSTRIKE HOLDINGS INC - A</t>
   </si>
   <si>
-    <t>ADOBE INC</t>
-  </si>
-  <si>
-    <t>MEITUAN-CLASS B</t>
-  </si>
-  <si>
     <t>ADYEN NV-UNSPON ADR</t>
   </si>
   <si>
-    <t>NXP SEMICONDUCTORS NV</t>
-  </si>
-  <si>
     <t>ATLASSIAN CORP PLC-CLASS A</t>
   </si>
   <si>
     <t>SALESFORCE.COM INC</t>
   </si>
   <si>
+    <t>BYD CO LTD-UNSPONSORED ADR</t>
+  </si>
+  <si>
     <t>OKTA INC</t>
   </si>
   <si>
-    <t>BYD CO LTD-UNSPONSORED ADR</t>
+    <t>CATERPILLAR INC</t>
+  </si>
+  <si>
+    <t>LIGHTSPEED POS INC-SUB VOTE</t>
   </si>
   <si>
     <t>SILVERGATE CAPITAL CORP-CL A</t>
   </si>
   <si>
-    <t>LIGHTSPEED POS INC-SUB VOTE</t>
-  </si>
-  <si>
-    <t>CATERPILLAR INC</t>
-  </si>
-  <si>
     <t>KOMATSU LTD -SPONS ADR</t>
   </si>
   <si>
     <t>SAREPTA THERAPEUTICS INC</t>
   </si>
   <si>
+    <t>WORKHORSE GROUP INC</t>
+  </si>
+  <si>
+    <t>Z HOLDINGS CORP</t>
+  </si>
+  <si>
     <t>WORKDAY INC-CLASS A</t>
   </si>
   <si>
-    <t>Z HOLDINGS CORP</t>
-  </si>
-  <si>
-    <t>WORKHORSE GROUP INC</t>
-  </si>
-  <si>
     <t>ZHONGAN ONLINE P&amp;C INSURAN-H</t>
   </si>
   <si>
@@ -958,21 +961,21 @@
     <t>INTUIT INC</t>
   </si>
   <si>
+    <t>VIRGIN GALACTIC HOLDINGS INC</t>
+  </si>
+  <si>
+    <t>PALANTIR TECHNOLOGIES INC-A</t>
+  </si>
+  <si>
     <t>PINDUODUO INC-ADR</t>
   </si>
   <si>
-    <t>VIRGIN GALACTIC HOLDINGS INC</t>
-  </si>
-  <si>
-    <t>PALANTIR TECHNOLOGIES INC-A</t>
+    <t>DISCOVERY LTDDASSAULT SYSTEMES SE</t>
   </si>
   <si>
     <t>LONGVIEW ACQUISITION CORP-A</t>
   </si>
   <si>
-    <t>DISCOVERY LTDDASSAULT SYSTEMES SE</t>
-  </si>
-  <si>
     <t>TERADYNE INC</t>
   </si>
   <si>
@@ -985,39 +988,39 @@
     <t>PLURISTEM THERAPEUTICS INC</t>
   </si>
   <si>
+    <t>NIU TECHNOLOGIES-SPONS ADR</t>
+  </si>
+  <si>
     <t>SCHWAB (CHARLES) CORP</t>
   </si>
   <si>
-    <t>NIU TECHNOLOGIES-SPONS ADR</t>
-  </si>
-  <si>
     <t>908 DEVICES INC</t>
   </si>
   <si>
+    <t>XILINX INC</t>
+  </si>
+  <si>
+    <t>REPARE THERAPEUTICS INC</t>
+  </si>
+  <si>
     <t>SURFACE ONCOLOGY INC</t>
   </si>
   <si>
-    <t>XILINX INC</t>
+    <t>EVOGENE LTD</t>
+  </si>
+  <si>
+    <t>BASE INC</t>
+  </si>
+  <si>
+    <t>TCS GROUP HOLDING-GDR REG S</t>
   </si>
   <si>
     <t>AUTODESK INCAUTODESK INC</t>
   </si>
   <si>
-    <t>REPARE THERAPEUTICS INC</t>
-  </si>
-  <si>
-    <t>TCS GROUP HOLDING-GDR REG S</t>
-  </si>
-  <si>
-    <t>EVOGENE LTD</t>
-  </si>
-  <si>
     <t>INTUITIVE SURGICAL INC</t>
   </si>
   <si>
-    <t>BASE INC</t>
-  </si>
-  <si>
     <t>YEAHKA LTD</t>
   </si>
   <si>
@@ -1063,21 +1066,24 @@
     <t>PTC INC</t>
   </si>
   <si>
+    <t>STRAUMANN HOLDING AG-REG</t>
+  </si>
+  <si>
+    <t>RENISHAW PLC</t>
+  </si>
+  <si>
     <t>ALTAIR ENGINEERING INC - A</t>
   </si>
   <si>
-    <t>STRAUMANN HOLDING AG-REG</t>
-  </si>
-  <si>
     <t>MGI DIGITAL GRAPHIC TECHNOLO</t>
   </si>
   <si>
-    <t>RENISHAW PLC</t>
-  </si>
-  <si>
     <t>MICROSOFT CORP</t>
   </si>
   <si>
+    <t>SKILLZ INC</t>
+  </si>
+  <si>
     <t>JSC KASPI.KZ GDR-REG S</t>
   </si>
   <si>
@@ -1099,39 +1105,39 @@
     <t>GENERAL ELECTRIC CO</t>
   </si>
   <si>
+    <t>ULTRA CLEAN HOLDINGS INC</t>
+  </si>
+  <si>
     <t>AEROJET ROCKETDYNE HOLDINGS</t>
   </si>
   <si>
     <t>OC OERLIKON CORP AG-REG</t>
   </si>
   <si>
+    <t>BERTRANDT AG</t>
+  </si>
+  <si>
     <t>ARCONIC CORP</t>
   </si>
   <si>
-    <t>ULTRA CLEAN HOLDINGS INC</t>
-  </si>
-  <si>
-    <t>BERTRANDT AG</t>
+    <t>MICHELIN (CGDE)</t>
   </si>
   <si>
     <t>MOOG INC-CLASS A</t>
   </si>
   <si>
-    <t>MICHELIN (CGDE)</t>
-  </si>
-  <si>
     <t>LINCOLN ELECTRIC HOLDINGS</t>
   </si>
   <si>
     <t>SIEMENS AG-REG</t>
   </si>
   <si>
+    <t>MEDTRONIC PLC</t>
+  </si>
+  <si>
     <t>STRYKER CORP</t>
   </si>
   <si>
-    <t>MEDTRONIC PLC</t>
-  </si>
-  <si>
     <t>NUVASIVE INC</t>
   </si>
   <si>
@@ -1147,15 +1153,15 @@
     <t>CARPENTER TECHNOLOGY</t>
   </si>
   <si>
+    <t>SGL CARBON SE</t>
+  </si>
+  <si>
+    <t>VOESTALPINE AG</t>
+  </si>
+  <si>
     <t>HEXCEL CORP</t>
   </si>
   <si>
-    <t>SGL CARBON SE</t>
-  </si>
-  <si>
-    <t>VOESTALPINE AG</t>
-  </si>
-  <si>
     <t>SANDVIK AB</t>
   </si>
   <si>
@@ -1180,10 +1186,10 @@
     <t>ARKEMA</t>
   </si>
   <si>
+    <t>KONINKLIJKE DSM NV</t>
+  </si>
+  <si>
     <t>3M CO</t>
-  </si>
-  <si>
-    <t>KONINKLIJKE DSM NV</t>
   </si>
   <si>
     <t>JD HEALTH INTERNATIONAL INC</t>
@@ -1544,7 +1550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,13 +1578,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>3706690</v>
+        <v>3730182</v>
       </c>
       <c r="D2">
-        <v>2615699932.3</v>
+        <v>2722174918.14</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1589,16 +1595,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>4692190</v>
+        <v>7432294</v>
       </c>
       <c r="D3">
-        <v>1557900923.8</v>
+        <v>1491141145.22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1606,16 +1612,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4">
-        <v>7280958</v>
+        <v>4607341</v>
       </c>
       <c r="D4">
-        <v>1455900361.68</v>
+        <v>1464673703.9</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1623,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>9231491</v>
       </c>
       <c r="D5">
-        <v>1413433587.01</v>
+        <v>1458667892.91</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1640,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C6">
-        <v>6253061</v>
+        <v>6292946</v>
       </c>
       <c r="D6">
-        <v>1360916196.04</v>
+        <v>1391747937.36</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1657,13 +1663,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>23643097</v>
       </c>
       <c r="D7">
-        <v>988517885.5700001</v>
+        <v>1031784753.08</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1674,13 +1680,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C8">
-        <v>37429302</v>
+        <v>37688053</v>
       </c>
       <c r="D8">
-        <v>846276518.22</v>
+        <v>864563935.8199999</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1691,16 +1697,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9">
-        <v>5563623</v>
+        <v>5713460</v>
       </c>
       <c r="D9">
-        <v>786084293.6700001</v>
+        <v>747149164.1999999</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1708,16 +1714,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C10">
-        <v>5677023</v>
+        <v>5610129</v>
       </c>
       <c r="D10">
-        <v>736877585.4</v>
+        <v>745754447.97</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1725,13 +1731,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C11">
         <v>27526241</v>
       </c>
       <c r="D11">
-        <v>714030691.54</v>
+        <v>726004633.9000001</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1742,13 +1748,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C12">
-        <v>14520370</v>
+        <v>14635180</v>
       </c>
       <c r="D12">
-        <v>673745168</v>
+        <v>677023426.8</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1759,13 +1765,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C13">
-        <v>2079864</v>
+        <v>2092383</v>
       </c>
       <c r="D13">
-        <v>654450006.24</v>
+        <v>650731113</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1776,13 +1782,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14">
-        <v>4767704</v>
+        <v>4805782</v>
       </c>
       <c r="D14">
-        <v>631673102.96</v>
+        <v>618840548.14</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1793,13 +1799,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C15">
         <v>8584631</v>
       </c>
       <c r="D15">
-        <v>601868479.41</v>
+        <v>614573733.29</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1810,13 +1816,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C16">
-        <v>2336067</v>
+        <v>2350686</v>
       </c>
       <c r="D16">
-        <v>547106891.4</v>
+        <v>545171097.12</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1827,13 +1833,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17">
         <v>3560187</v>
       </c>
       <c r="D17">
-        <v>546132685.8</v>
+        <v>534811291.14</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1844,13 +1850,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18">
-        <v>1582975</v>
+        <v>1592942</v>
       </c>
       <c r="D18">
-        <v>535837037.5</v>
+        <v>532982463.78</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1861,16 +1867,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19">
-        <v>435105</v>
+        <v>8782123</v>
       </c>
       <c r="D19">
-        <v>492517104.7500001</v>
+        <v>491008496.93</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1878,13 +1884,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C20">
-        <v>4185261</v>
+        <v>1753830</v>
       </c>
       <c r="D20">
-        <v>482518740.6900001</v>
+        <v>479847887.9999999</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1895,13 +1901,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21">
-        <v>1753830</v>
+        <v>437795</v>
       </c>
       <c r="D21">
-        <v>480181115.7</v>
+        <v>478247257.9999999</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1912,16 +1918,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22">
-        <v>8782123</v>
+        <v>4211576</v>
       </c>
       <c r="D22">
-        <v>477747491.2</v>
+        <v>477171560.8</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1929,13 +1935,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C23">
-        <v>2162721</v>
+        <v>2177252</v>
       </c>
       <c r="D23">
-        <v>467666789.04</v>
+        <v>472028233.6</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1946,13 +1952,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C24">
-        <v>2058662</v>
+        <v>2071694</v>
       </c>
       <c r="D24">
-        <v>457640562.6</v>
+        <v>460765462.54</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1963,13 +1969,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25">
-        <v>8272000</v>
+        <v>8291152</v>
       </c>
       <c r="D25">
-        <v>448425120</v>
+        <v>452282341.6</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1980,16 +1986,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26">
-        <v>11152042</v>
+        <v>3970835</v>
       </c>
       <c r="D26">
-        <v>446193200.42</v>
+        <v>443542269.4999999</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1997,13 +2003,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27">
-        <v>8801711</v>
+        <v>11152042</v>
       </c>
       <c r="D27">
-        <v>430755736.34</v>
+        <v>436044842.2</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2014,13 +2020,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C28">
-        <v>3944428</v>
+        <v>5974132</v>
       </c>
       <c r="D28">
-        <v>430100429.12</v>
+        <v>435215516.2</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -2031,16 +2037,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29">
-        <v>5937864</v>
+        <v>8801711</v>
       </c>
       <c r="D29">
-        <v>426873042.96</v>
+        <v>416672998.74</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2048,13 +2054,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C30">
         <v>9923309</v>
       </c>
       <c r="D30">
-        <v>413801985.3</v>
+        <v>409038796.98</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2065,16 +2071,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C31">
-        <v>5982210</v>
+        <v>1033192</v>
       </c>
       <c r="D31">
-        <v>368145203.4</v>
+        <v>371928456.16</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2082,13 +2088,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C32">
-        <v>1776027</v>
+        <v>1786770</v>
       </c>
       <c r="D32">
-        <v>353518174.35</v>
+        <v>350314126.2</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -2099,16 +2105,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C33">
-        <v>1026913</v>
+        <v>5139397</v>
       </c>
       <c r="D33">
-        <v>346398293.16</v>
+        <v>349838753.79</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2116,16 +2122,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C34">
-        <v>2235403</v>
+        <v>6019135</v>
       </c>
       <c r="D34">
-        <v>343067298.41</v>
+        <v>346160453.85</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2133,16 +2139,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C35">
-        <v>5108683</v>
+        <v>3947393</v>
       </c>
       <c r="D35">
-        <v>336662209.7</v>
+        <v>310659829.1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2150,13 +2156,13 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C36">
-        <v>3923457</v>
+        <v>2129723</v>
       </c>
       <c r="D36">
-        <v>315916757.64</v>
+        <v>306850489.84</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2167,16 +2173,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C37">
-        <v>1773150</v>
+        <v>11988477</v>
       </c>
       <c r="D37">
-        <v>301240453.5</v>
+        <v>300431233.62</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2184,16 +2190,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C38">
-        <v>11988477</v>
+        <v>4080301</v>
       </c>
       <c r="D38">
-        <v>293717686.5</v>
+        <v>291700718.49</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2201,16 +2207,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39">
-        <v>4040893</v>
+        <v>1733217</v>
       </c>
       <c r="D39">
-        <v>292762697.85</v>
+        <v>288355312.29</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2218,13 +2224,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C40">
-        <v>2886513</v>
+        <v>2914657</v>
       </c>
       <c r="D40">
-        <v>262470627.09</v>
+        <v>261386439.76</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2235,16 +2241,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C41">
-        <v>967494</v>
+        <v>538836</v>
       </c>
       <c r="D41">
-        <v>250813144.56</v>
+        <v>260182350.96</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2252,16 +2258,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C42">
-        <v>6739994</v>
+        <v>973754</v>
       </c>
       <c r="D42">
-        <v>246751180.34</v>
+        <v>248015143.8</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2269,13 +2275,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C43">
-        <v>508310</v>
+        <v>5631272</v>
       </c>
       <c r="D43">
-        <v>245569644.1</v>
+        <v>247100215.36</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2286,13 +2292,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C44">
-        <v>6138619</v>
+        <v>6182640</v>
       </c>
       <c r="D44">
-        <v>241401192.18</v>
+        <v>239639126.4</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2303,13 +2309,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C45">
-        <v>5412619</v>
+        <v>6739994</v>
       </c>
       <c r="D45">
-        <v>237289216.96</v>
+        <v>234416991.32</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2320,13 +2326,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C46">
-        <v>3444328</v>
+        <v>3470404</v>
       </c>
       <c r="D46">
-        <v>230356656.64</v>
+        <v>224431026.68</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2337,16 +2343,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C47">
-        <v>10661813</v>
+        <v>2346446</v>
       </c>
       <c r="D47">
-        <v>212489933.09</v>
+        <v>221434109.02</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2354,16 +2360,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C48">
-        <v>2179624</v>
+        <v>10721759</v>
       </c>
       <c r="D48">
-        <v>205821894.32</v>
+        <v>220868235.4</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2371,16 +2377,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C49">
-        <v>16577008</v>
+        <v>6198321</v>
       </c>
       <c r="D49">
-        <v>200747566.88</v>
+        <v>217437100.68</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2388,16 +2394,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C50">
-        <v>6172776</v>
+        <v>16577008</v>
       </c>
       <c r="D50">
-        <v>197528832</v>
+        <v>211522622.08</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2405,13 +2411,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C51">
-        <v>812410</v>
+        <v>3935339</v>
       </c>
       <c r="D51">
-        <v>192004979.4</v>
+        <v>192438077.1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2422,13 +2428,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C52">
         <v>27224021</v>
       </c>
       <c r="D52">
-        <v>188390225.32</v>
+        <v>188934705.74</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2439,16 +2445,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C53">
-        <v>9075053</v>
+        <v>820330</v>
       </c>
       <c r="D53">
-        <v>188035098.16</v>
+        <v>188208311.9</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2456,16 +2462,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C54">
-        <v>629758</v>
+        <v>9075053</v>
       </c>
       <c r="D54">
-        <v>172024695.28</v>
+        <v>186764590.74</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2473,16 +2479,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C55">
-        <v>3935339</v>
+        <v>632866</v>
       </c>
       <c r="D55">
-        <v>170715005.82</v>
+        <v>170202982.04</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2490,16 +2496,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C56">
-        <v>3320341</v>
+        <v>6036351</v>
       </c>
       <c r="D56">
-        <v>166249473.87</v>
+        <v>166603287.6</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2507,13 +2513,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C57">
-        <v>98395</v>
+        <v>3337339</v>
       </c>
       <c r="D57">
-        <v>164833271.9</v>
+        <v>165498641.01</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2524,13 +2530,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C58">
-        <v>93687</v>
+        <v>94599</v>
       </c>
       <c r="D58">
-        <v>164199583.68</v>
+        <v>163290171.87</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2541,16 +2547,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59">
-        <v>6036351</v>
+        <v>98983</v>
       </c>
       <c r="D59">
-        <v>163343658.06</v>
+        <v>162332120</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2558,13 +2564,13 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C60">
-        <v>8577919</v>
+        <v>8661551</v>
       </c>
       <c r="D60">
-        <v>156118125.8</v>
+        <v>155821302.49</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2575,13 +2581,13 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C61">
-        <v>1773318</v>
+        <v>1790614</v>
       </c>
       <c r="D61">
-        <v>154243199.64</v>
+        <v>154798580.3</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2592,13 +2598,13 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C62">
-        <v>1645089</v>
+        <v>1705928</v>
       </c>
       <c r="D62">
-        <v>144603323.1</v>
+        <v>147272764.24</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -2609,13 +2615,13 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63">
-        <v>2058240</v>
+        <v>2078304</v>
       </c>
       <c r="D63">
-        <v>138210816</v>
+        <v>143153579.52</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2626,13 +2632,13 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64">
-        <v>2388233</v>
+        <v>2411513</v>
       </c>
       <c r="D64">
-        <v>135030693.82</v>
+        <v>136925708.14</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2643,16 +2649,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C65">
-        <v>1457144</v>
+        <v>240704</v>
       </c>
       <c r="D65">
-        <v>130283245.04</v>
+        <v>126258876.16</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2660,16 +2666,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C66">
-        <v>535445</v>
+        <v>1483610</v>
       </c>
       <c r="D66">
-        <v>124614114.85</v>
+        <v>123940779.4</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2677,16 +2683,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C67">
-        <v>911831</v>
+        <v>538523</v>
       </c>
       <c r="D67">
-        <v>120990855.39</v>
+        <v>122702465.55</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2694,13 +2700,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C68">
-        <v>205944</v>
+        <v>232122</v>
       </c>
       <c r="D68">
-        <v>111360099.12</v>
+        <v>121367308.92</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2711,16 +2717,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C69">
-        <v>1388511</v>
+        <v>917482</v>
       </c>
       <c r="D69">
-        <v>109942300.98</v>
+        <v>118731345.62</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2728,13 +2734,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C70">
-        <v>2355928</v>
+        <v>1402047</v>
       </c>
       <c r="D70">
-        <v>102482868</v>
+        <v>111434695.56</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2745,16 +2751,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C71">
-        <v>1146566</v>
+        <v>4138761</v>
       </c>
       <c r="D71">
-        <v>100175471.42</v>
+        <v>99371651.61</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2762,13 +2768,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C72">
-        <v>1126067</v>
+        <v>1151312</v>
       </c>
       <c r="D72">
-        <v>91932109.88</v>
+        <v>99174015.68000001</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2779,13 +2785,13 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C73">
-        <v>1537513</v>
+        <v>2378904</v>
       </c>
       <c r="D73">
-        <v>90913143.69</v>
+        <v>98605570.8</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2796,16 +2802,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C74">
-        <v>3995300</v>
+        <v>1137043</v>
       </c>
       <c r="D74">
-        <v>90813169</v>
+        <v>94533755.02</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2813,16 +2819,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C75">
-        <v>173511</v>
+        <v>336774</v>
       </c>
       <c r="D75">
-        <v>90607444.2</v>
+        <v>92363637.23999999</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2830,16 +2836,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C76">
-        <v>8217571</v>
+        <v>190391</v>
       </c>
       <c r="D76">
-        <v>89160645.34999999</v>
+        <v>89830281.62</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2847,16 +2853,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C77">
-        <v>188551</v>
+        <v>8217571</v>
       </c>
       <c r="D77">
-        <v>87823284.78</v>
+        <v>88174536.83</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2864,13 +2870,13 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C78">
-        <v>3942497</v>
+        <v>1552505</v>
       </c>
       <c r="D78">
-        <v>86064709.51000001</v>
+        <v>86676354.15000001</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2881,13 +2887,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C79">
-        <v>301893</v>
+        <v>3980945</v>
       </c>
       <c r="D79">
-        <v>82190369.25</v>
+        <v>85311651.34999999</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2898,13 +2904,13 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C80">
-        <v>8450506</v>
+        <v>1170421</v>
       </c>
       <c r="D80">
-        <v>76899604.59999999</v>
+        <v>77587208.09</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2915,7 +2921,7 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C81">
         <v>8619409</v>
@@ -2932,16 +2938,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C82">
-        <v>1126867</v>
+        <v>535886</v>
       </c>
       <c r="D82">
-        <v>75240909.59</v>
+        <v>75324136.16</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2949,13 +2955,13 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C83">
-        <v>530702</v>
+        <v>31874</v>
       </c>
       <c r="D83">
-        <v>75147403.2</v>
+        <v>72596184.61</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -2966,16 +2972,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C84">
-        <v>31634</v>
+        <v>8508409</v>
       </c>
       <c r="D84">
-        <v>73619568.27</v>
+        <v>72576728.77</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2983,13 +2989,13 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C85">
-        <v>22243</v>
+        <v>22419</v>
       </c>
       <c r="D85">
-        <v>72443893.98999999</v>
+        <v>71441057.97</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -3000,13 +3006,13 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C86">
-        <v>1309565</v>
+        <v>1322333</v>
       </c>
       <c r="D86">
-        <v>71056996.90000001</v>
+        <v>69924969.04000001</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3017,13 +3023,13 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C87">
-        <v>537694</v>
+        <v>542942</v>
       </c>
       <c r="D87">
-        <v>69298002.72</v>
+        <v>68975351.68000001</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3034,16 +3040,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C88">
-        <v>6508316</v>
+        <v>252147</v>
       </c>
       <c r="D88">
-        <v>68727816.95999999</v>
+        <v>67484623.08</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3051,13 +3057,13 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C89">
-        <v>444244</v>
+        <v>446083</v>
       </c>
       <c r="D89">
-        <v>67400699.68000001</v>
+        <v>65110274.68</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3068,13 +3074,13 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C90">
-        <v>249919</v>
+        <v>37492</v>
       </c>
       <c r="D90">
-        <v>67240706.95</v>
+        <v>64795174.08</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3085,13 +3091,13 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C91">
-        <v>82148</v>
+        <v>82487</v>
       </c>
       <c r="D91">
-        <v>65800548</v>
+        <v>63797920.41</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3102,13 +3108,13 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C92">
-        <v>37160</v>
+        <v>1587336</v>
       </c>
       <c r="D92">
-        <v>65099860.8</v>
+        <v>63144226.08</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3119,16 +3125,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C93">
-        <v>1482328</v>
+        <v>6508316</v>
       </c>
       <c r="D93">
-        <v>64970436.24</v>
+        <v>61829002</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3136,13 +3142,13 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C94">
-        <v>1580793</v>
+        <v>2313094</v>
       </c>
       <c r="D94">
-        <v>62536171.08</v>
+        <v>60996288.78</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3153,13 +3159,13 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C95">
-        <v>2248562</v>
+        <v>1102579</v>
       </c>
       <c r="D95">
-        <v>61678055.66</v>
+        <v>57598726.96</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3170,13 +3176,13 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C96">
-        <v>144245</v>
+        <v>144842</v>
       </c>
       <c r="D96">
-        <v>57184487.8</v>
+        <v>56161037.08</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3187,13 +3193,13 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C97">
-        <v>729975</v>
+        <v>732996</v>
       </c>
       <c r="D97">
-        <v>55470800.25</v>
+        <v>54674171.64</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3204,13 +3210,13 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C98">
-        <v>258787</v>
+        <v>1435615</v>
       </c>
       <c r="D98">
-        <v>54816262.34</v>
+        <v>54174150.94</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3221,13 +3227,13 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C99">
-        <v>108369</v>
+        <v>331758</v>
       </c>
       <c r="D99">
-        <v>54197504.28</v>
+        <v>53758066.32</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3238,13 +3244,13 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100">
-        <v>1424815</v>
+        <v>108819</v>
       </c>
       <c r="D100">
-        <v>54144238.14</v>
+        <v>52814213.46</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3255,13 +3261,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C101">
-        <v>1135556</v>
+        <v>259858</v>
       </c>
       <c r="D101">
-        <v>52689798.4</v>
+        <v>52098930.42</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3272,13 +3278,13 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C102">
-        <v>328830</v>
+        <v>1140257</v>
       </c>
       <c r="D102">
-        <v>52287258.3</v>
+        <v>51881693.5</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3289,13 +3295,13 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103">
-        <v>220861</v>
+        <v>221776</v>
       </c>
       <c r="D103">
-        <v>51652762.07</v>
+        <v>51354450.56</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3306,13 +3312,13 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C104">
-        <v>224852</v>
+        <v>225782</v>
       </c>
       <c r="D104">
-        <v>50036315.56</v>
+        <v>49742032.42</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3323,13 +3329,13 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C105">
-        <v>184119</v>
+        <v>877993</v>
       </c>
       <c r="D105">
-        <v>46814096.94</v>
+        <v>49255407.3</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3340,13 +3346,13 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C106">
-        <v>870241</v>
+        <v>184881</v>
       </c>
       <c r="D106">
-        <v>45922617.57</v>
+        <v>46344120.27</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3357,13 +3363,13 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C107">
-        <v>617539</v>
+        <v>253524</v>
       </c>
       <c r="D107">
-        <v>45889323.09</v>
+        <v>46179396.6</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3374,13 +3380,13 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C108">
-        <v>648196</v>
+        <v>652996</v>
       </c>
       <c r="D108">
-        <v>45749020.85</v>
+        <v>43664174.98</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3391,13 +3397,13 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C109">
-        <v>251284</v>
+        <v>622231</v>
       </c>
       <c r="D109">
-        <v>45738713.68</v>
+        <v>41652143.14</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3408,13 +3414,13 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C110">
-        <v>1501560</v>
+        <v>1514940</v>
       </c>
       <c r="D110">
-        <v>41566934.7</v>
+        <v>41524505.4</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3425,13 +3431,13 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C111">
-        <v>241691</v>
+        <v>244043</v>
       </c>
       <c r="D111">
-        <v>41205898.59</v>
+        <v>40337867.47</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3442,13 +3448,13 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C112">
-        <v>163133</v>
+        <v>1877228</v>
       </c>
       <c r="D112">
-        <v>39088298.13</v>
+        <v>40210223.76</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -3459,13 +3465,13 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C113">
-        <v>6272007</v>
+        <v>6320007</v>
       </c>
       <c r="D113">
-        <v>37927859.87</v>
+        <v>39011103.16</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3476,13 +3482,13 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C114">
-        <v>1860648</v>
+        <v>164375</v>
       </c>
       <c r="D114">
-        <v>36803617.44</v>
+        <v>37490650</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3493,13 +3499,13 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C115">
-        <v>7728745</v>
+        <v>7787545</v>
       </c>
       <c r="D115">
-        <v>36089309.7</v>
+        <v>36809028.26</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -3510,13 +3516,13 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C116">
-        <v>409462</v>
+        <v>413110</v>
       </c>
       <c r="D116">
-        <v>35582247.8</v>
+        <v>35498542.3</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -3527,13 +3533,13 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C117">
-        <v>87644</v>
+        <v>88310</v>
       </c>
       <c r="D117">
-        <v>33291573.4</v>
+        <v>32824827</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3544,13 +3550,13 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C118">
-        <v>181117</v>
+        <v>1366919</v>
       </c>
       <c r="D118">
-        <v>32179057.39</v>
+        <v>31726189.99</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -3561,13 +3567,13 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C119">
-        <v>1354847</v>
+        <v>1331762</v>
       </c>
       <c r="D119">
-        <v>32150519.31</v>
+        <v>31123277.94</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -3578,13 +3584,13 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C120">
-        <v>1326272</v>
+        <v>182497</v>
       </c>
       <c r="D120">
-        <v>31233705.6</v>
+        <v>30436849.66</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3595,16 +3601,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C121">
-        <v>1500627</v>
+        <v>2316093</v>
       </c>
       <c r="D121">
-        <v>29697408.33</v>
+        <v>29253922.44</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3612,16 +3618,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C122">
-        <v>2298813</v>
+        <v>1515267</v>
       </c>
       <c r="D122">
-        <v>28934070.73</v>
+        <v>29017363.05</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3629,13 +3635,13 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C123">
-        <v>239649</v>
+        <v>241785</v>
       </c>
       <c r="D123">
-        <v>28731518.61</v>
+        <v>28818354.15</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3646,13 +3652,13 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C124">
-        <v>77694</v>
+        <v>78266</v>
       </c>
       <c r="D124">
-        <v>28265077.2</v>
+        <v>27993400.22</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -3663,13 +3669,13 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C125">
-        <v>213799</v>
+        <v>215425</v>
       </c>
       <c r="D125">
-        <v>27522345.27</v>
+        <v>27156475.5</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3680,13 +3686,13 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C126">
-        <v>3789907</v>
+        <v>3826867</v>
       </c>
       <c r="D126">
-        <v>26794642.49</v>
+        <v>27094218.36</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3697,13 +3703,13 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C127">
-        <v>476868</v>
+        <v>901590</v>
       </c>
       <c r="D127">
-        <v>25293078.72</v>
+        <v>25938744.3</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -3714,13 +3720,13 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C128">
-        <v>893626</v>
+        <v>480492</v>
       </c>
       <c r="D128">
-        <v>25066209.3</v>
+        <v>25350757.92</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -3731,13 +3737,13 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C129">
-        <v>436184</v>
+        <v>440440</v>
       </c>
       <c r="D129">
-        <v>24840678.8</v>
+        <v>24096472.4</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -3748,13 +3754,13 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C130">
-        <v>2536207</v>
+        <v>166673</v>
       </c>
       <c r="D130">
-        <v>23434552.68</v>
+        <v>23739235.39</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -3765,13 +3771,13 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C131">
-        <v>165201</v>
+        <v>650991</v>
       </c>
       <c r="D131">
-        <v>23420545.77</v>
+        <v>23598423.75</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -3782,16 +3788,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C132">
-        <v>74274</v>
+        <v>2560943</v>
       </c>
       <c r="D132">
-        <v>22678823.16</v>
+        <v>23381409.59</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3799,13 +3805,13 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C133">
-        <v>644703</v>
+        <v>4583323</v>
       </c>
       <c r="D133">
-        <v>22113312.9</v>
+        <v>23374947.3</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -3816,13 +3822,13 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C134">
-        <v>671851</v>
+        <v>220300</v>
       </c>
       <c r="D134">
-        <v>22103897.9</v>
+        <v>23041118.6</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3833,13 +3839,13 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C135">
-        <v>4583323</v>
+        <v>676957</v>
       </c>
       <c r="D135">
-        <v>21541618.1</v>
+        <v>22982690.15</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -3850,16 +3856,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C136">
-        <v>26044</v>
+        <v>74770</v>
       </c>
       <c r="D136">
-        <v>21306596.4</v>
+        <v>22194726.8</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3867,13 +3873,13 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C137">
-        <v>218500</v>
+        <v>26276</v>
       </c>
       <c r="D137">
-        <v>20653333.98</v>
+        <v>21020800</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -3884,13 +3890,13 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C138">
-        <v>4179200</v>
+        <v>4210400</v>
       </c>
       <c r="D138">
-        <v>20269452.88</v>
+        <v>20254055.38</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -3901,13 +3907,13 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C139">
-        <v>272878</v>
+        <v>274954</v>
       </c>
       <c r="D139">
-        <v>19718164.28</v>
+        <v>19246780</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -3918,13 +3924,13 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C140">
-        <v>1994515</v>
+        <v>1989640</v>
       </c>
       <c r="D140">
-        <v>18927947.35</v>
+        <v>18642926.8</v>
       </c>
       <c r="E140">
         <v>3</v>
@@ -3935,13 +3941,13 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C141">
         <v>1400180</v>
       </c>
       <c r="D141">
-        <v>17222214</v>
+        <v>16998185.2</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -3952,13 +3958,13 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C142">
-        <v>129202</v>
+        <v>130354</v>
       </c>
       <c r="D142">
-        <v>16899621.6</v>
+        <v>16947323.54</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -3969,13 +3975,13 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C143">
-        <v>497064</v>
+        <v>510133</v>
       </c>
       <c r="D143">
-        <v>16447847.76</v>
+        <v>16441586.59</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -3986,13 +3992,13 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C144">
-        <v>76003</v>
+        <v>76579</v>
       </c>
       <c r="D144">
-        <v>15777462.77</v>
+        <v>15536347.52</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -4003,13 +4009,13 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C145">
-        <v>56237</v>
+        <v>56737</v>
       </c>
       <c r="D145">
-        <v>14104801.97</v>
+        <v>13983968.39</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -4020,13 +4026,13 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C146">
-        <v>16530</v>
+        <v>16656</v>
       </c>
       <c r="D146">
-        <v>9431356.800000001</v>
+        <v>9373663.68</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -4037,13 +4043,13 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C147">
         <v>424298</v>
       </c>
       <c r="D147">
-        <v>9029491.869999999</v>
+        <v>8647794.32</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -4054,13 +4060,13 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C148">
         <v>818772</v>
       </c>
       <c r="D148">
-        <v>8580730.560000001</v>
+        <v>8572542.84</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -4071,13 +4077,13 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C149">
-        <v>118071</v>
+        <v>119123</v>
       </c>
       <c r="D149">
-        <v>8359426.8</v>
+        <v>8304064.33</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -4088,13 +4094,13 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C150">
-        <v>37728</v>
+        <v>38064</v>
       </c>
       <c r="D150">
-        <v>8024745.6</v>
+        <v>7915408.8</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -4105,13 +4111,13 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C151">
         <v>281788</v>
       </c>
       <c r="D151">
-        <v>6929166.92</v>
+        <v>6793908.68</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -4122,13 +4128,13 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C152">
         <v>53804</v>
       </c>
       <c r="D152">
-        <v>6435496.44</v>
+        <v>6358556.72</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -4139,13 +4145,13 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C153">
-        <v>102744</v>
+        <v>5112</v>
       </c>
       <c r="D153">
-        <v>5977645.92</v>
+        <v>6004562.22</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -4156,13 +4162,13 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C154">
-        <v>5112</v>
+        <v>73622</v>
       </c>
       <c r="D154">
-        <v>5956204.68</v>
+        <v>5983173.42</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -4173,13 +4179,13 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C155">
-        <v>99824</v>
+        <v>102744</v>
       </c>
       <c r="D155">
-        <v>5823076.83</v>
+        <v>5928328.8</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -4190,13 +4196,13 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C156">
-        <v>73622</v>
+        <v>99824</v>
       </c>
       <c r="D156">
-        <v>5799069</v>
+        <v>5716071.19</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4207,13 +4213,13 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C157">
         <v>21490</v>
       </c>
       <c r="D157">
-        <v>4779805.8</v>
+        <v>4678158.1</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -4224,13 +4230,13 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C158">
-        <v>41067</v>
+        <v>215897</v>
       </c>
       <c r="D158">
-        <v>2755595.7</v>
+        <v>3929325.4</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -4241,13 +4247,13 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C159">
-        <v>4066</v>
+        <v>41379</v>
       </c>
       <c r="D159">
-        <v>2172789.08</v>
+        <v>2722738.2</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -4258,13 +4264,13 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C160">
-        <v>18090</v>
+        <v>4066</v>
       </c>
       <c r="D160">
-        <v>1648583.06</v>
+        <v>2140586.36</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -4275,13 +4281,13 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C161">
-        <v>12621</v>
+        <v>18090</v>
       </c>
       <c r="D161">
-        <v>1526383.74</v>
+        <v>1669039.72</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -4292,13 +4298,13 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C162">
-        <v>21492</v>
+        <v>12621</v>
       </c>
       <c r="D162">
-        <v>1517979.96</v>
+        <v>1494073.98</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -4309,13 +4315,13 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C163">
-        <v>14970</v>
+        <v>21492</v>
       </c>
       <c r="D163">
-        <v>1480533</v>
+        <v>1468548.36</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -4326,13 +4332,13 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C164">
-        <v>135928</v>
+        <v>14970</v>
       </c>
       <c r="D164">
-        <v>1468022.4</v>
+        <v>1436970.3</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -4343,13 +4349,13 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C165">
-        <v>24044</v>
+        <v>135928</v>
       </c>
       <c r="D165">
-        <v>1270725.4</v>
+        <v>1423166.16</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -4360,13 +4366,13 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C166">
-        <v>122093</v>
+        <v>39220</v>
       </c>
       <c r="D166">
-        <v>1261889.7</v>
+        <v>1326420.4</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -4377,13 +4383,13 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C167">
-        <v>41618</v>
+        <v>24044</v>
       </c>
       <c r="D167">
-        <v>1240216.4</v>
+        <v>1263993.08</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -4394,13 +4400,13 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C168">
-        <v>39220</v>
+        <v>122093</v>
       </c>
       <c r="D168">
-        <v>1221703</v>
+        <v>1253283.99</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -4411,13 +4417,13 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C169">
         <v>25157</v>
       </c>
       <c r="D169">
-        <v>1217021.39</v>
+        <v>1214048.72</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -4428,13 +4434,13 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C170">
-        <v>14586</v>
+        <v>41618</v>
       </c>
       <c r="D170">
-        <v>1156669.8</v>
+        <v>1159893.66</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -4445,13 +4451,13 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C171">
         <v>8850</v>
       </c>
       <c r="D171">
-        <v>1134670.83</v>
+        <v>1157156.77</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -4462,13 +4468,13 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C172">
-        <v>9506</v>
+        <v>14586</v>
       </c>
       <c r="D172">
-        <v>1105072.5</v>
+        <v>1121517.54</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -4479,13 +4485,13 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C173">
-        <v>7358</v>
+        <v>9506</v>
       </c>
       <c r="D173">
-        <v>1056369.23</v>
+        <v>1081117.38</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -4496,13 +4502,13 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C174">
-        <v>4247</v>
+        <v>7358</v>
       </c>
       <c r="D174">
-        <v>1040684.88</v>
+        <v>1060039.39</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -4513,13 +4519,13 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C175">
         <v>8819</v>
       </c>
       <c r="D175">
-        <v>1033057.66</v>
+        <v>1023180.38</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -4530,13 +4536,13 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C176">
-        <v>17875</v>
+        <v>4247</v>
       </c>
       <c r="D176">
-        <v>1006898.75</v>
+        <v>1015117.94</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -4547,13 +4553,13 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C177">
-        <v>5536</v>
+        <v>17875</v>
       </c>
       <c r="D177">
-        <v>932262.4</v>
+        <v>962926.25</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -4564,13 +4570,13 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C178">
-        <v>15429</v>
+        <v>5536</v>
       </c>
       <c r="D178">
-        <v>258744.33</v>
+        <v>906796.8</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -4581,13 +4587,13 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C179">
-        <v>9900</v>
+        <v>15429</v>
       </c>
       <c r="D179">
-        <v>234616.24</v>
+        <v>246555.42</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -4598,13 +4604,13 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C180">
-        <v>7804</v>
+        <v>9900</v>
       </c>
       <c r="D180">
-        <v>227252.48</v>
+        <v>240386.76</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -4615,13 +4621,13 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C181">
-        <v>3986</v>
+        <v>7804</v>
       </c>
       <c r="D181">
-        <v>193281.14</v>
+        <v>219214.36</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -4632,13 +4638,13 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C182">
         <v>41875</v>
       </c>
       <c r="D182">
-        <v>183906.85</v>
+        <v>192851.81</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -4649,13 +4655,13 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C183">
         <v>5126</v>
       </c>
       <c r="D183">
-        <v>183480.7</v>
+        <v>186786.99</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -4666,13 +4672,13 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C184">
-        <v>7402</v>
+        <v>3986</v>
       </c>
       <c r="D184">
-        <v>181100.52</v>
+        <v>185667.88</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -4683,13 +4689,13 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C185">
-        <v>5337</v>
+        <v>7402</v>
       </c>
       <c r="D185">
-        <v>173951.11</v>
+        <v>182085.17</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -4700,13 +4706,13 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C186">
-        <v>2427</v>
+        <v>5337</v>
       </c>
       <c r="D186">
-        <v>172583.97</v>
+        <v>176956.49</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -4717,13 +4723,13 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C187">
-        <v>28708</v>
+        <v>2427</v>
       </c>
       <c r="D187">
-        <v>169848.6</v>
+        <v>170666.64</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -4734,13 +4740,13 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C188">
-        <v>1673</v>
+        <v>28708</v>
       </c>
       <c r="D188">
-        <v>167768.44</v>
+        <v>167186.22</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -4751,13 +4757,13 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C189">
-        <v>7200</v>
+        <v>1673</v>
       </c>
       <c r="D189">
-        <v>166968</v>
+        <v>164924.34</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -4768,13 +4774,13 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C190">
-        <v>1346</v>
+        <v>7200</v>
       </c>
       <c r="D190">
-        <v>151771.75</v>
+        <v>161712</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -4785,13 +4791,13 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C191">
-        <v>1294</v>
+        <v>1346</v>
       </c>
       <c r="D191">
-        <v>147805.32</v>
+        <v>152169.57</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -4802,13 +4808,13 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C192">
-        <v>845</v>
+        <v>1294</v>
       </c>
       <c r="D192">
-        <v>147697.55</v>
+        <v>150284.87</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -4819,13 +4825,13 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C193">
         <v>843</v>
       </c>
       <c r="D193">
-        <v>145002.14</v>
+        <v>149718.9</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -4836,15 +4842,32 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C194">
+        <v>845</v>
+      </c>
+      <c r="D194">
+        <v>145230.15</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>392</v>
+      </c>
+      <c r="C195">
         <v>6925</v>
       </c>
-      <c r="D194">
-        <v>133989.9</v>
-      </c>
-      <c r="E194">
+      <c r="D195">
+        <v>130571.07</v>
+      </c>
+      <c r="E195">
         <v>1</v>
       </c>
     </row>

--- a/data/ARK.xlsx
+++ b/data/ARK.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
   <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Shares_1-4-2021</t>
-  </si>
-  <si>
-    <t>Market Value($)</t>
-  </si>
-  <si>
-    <t>NumFunds</t>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>shares_1-4-2021</t>
+  </si>
+  <si>
+    <t>market value($)</t>
+  </si>
+  <si>
+    <t>num_funds</t>
   </si>
   <si>
     <t>TSLA</t>

--- a/data/ARK.xlsx
+++ b/data/ARK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>ticker</t>
   </si>
@@ -25,10 +25,13 @@
     <t>shares_1-4-2021</t>
   </si>
   <si>
-    <t>market value($)</t>
-  </si>
-  <si>
-    <t>num_funds</t>
+    <t>shares_1-5-2021</t>
+  </si>
+  <si>
+    <t>market value($)_y</t>
+  </si>
+  <si>
+    <t>num_funds_y</t>
   </si>
   <si>
     <t>TSLA</t>
@@ -1550,13 +1553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:F195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1572,3302 +1575,3887 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2">
         <v>3730182</v>
       </c>
       <c r="D2">
-        <v>2722174918.14</v>
+        <v>3755645</v>
       </c>
       <c r="E2">
+        <v>2760812195.95</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C3">
         <v>7432294</v>
       </c>
       <c r="D3">
-        <v>1491141145.22</v>
+        <v>7463015</v>
       </c>
       <c r="E3">
+        <v>1499842124.55</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C4">
         <v>4607341</v>
       </c>
       <c r="D4">
-        <v>1464673703.9</v>
+        <v>4578074</v>
       </c>
       <c r="E4">
+        <v>1534478843.32</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5">
         <v>9231491</v>
       </c>
       <c r="D5">
-        <v>1458667892.91</v>
+        <v>9124475</v>
       </c>
       <c r="E5">
+        <v>1465573174.5</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>6292946</v>
       </c>
       <c r="D6">
-        <v>1391747937.36</v>
+        <v>6345530</v>
       </c>
       <c r="E6">
+        <v>1457885517.5</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C7">
         <v>23643097</v>
       </c>
       <c r="D7">
-        <v>1031784753.08</v>
+        <v>23643097</v>
       </c>
       <c r="E7">
+        <v>1092783943.34</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C8">
         <v>37688053</v>
       </c>
       <c r="D8">
-        <v>864563935.8199999</v>
+        <v>37840816</v>
       </c>
       <c r="E8">
+        <v>883961461.76</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C9">
         <v>5713460</v>
       </c>
       <c r="D9">
-        <v>747149164.1999999</v>
+        <v>5756166</v>
       </c>
       <c r="E9">
+        <v>780795137.0799999</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C10">
         <v>5610129</v>
       </c>
       <c r="D10">
-        <v>745754447.97</v>
+        <v>5563134</v>
       </c>
       <c r="E10">
+        <v>770494059</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C11">
         <v>27526241</v>
       </c>
       <c r="D11">
-        <v>726004633.9000001</v>
+        <v>27526241</v>
       </c>
       <c r="E11">
+        <v>771010010.41</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C12">
         <v>14635180</v>
       </c>
       <c r="D12">
-        <v>677023426.8</v>
+        <v>14682870</v>
       </c>
       <c r="E12">
+        <v>656911603.8</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C13">
         <v>2092383</v>
       </c>
       <c r="D13">
-        <v>650731113</v>
+        <v>2102026</v>
       </c>
       <c r="E13">
+        <v>659447596.72</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C14">
         <v>4805782</v>
       </c>
       <c r="D14">
-        <v>618840548.14</v>
+        <v>4821264</v>
       </c>
       <c r="E14">
+        <v>611721976.3199999</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C15">
         <v>8584631</v>
       </c>
       <c r="D15">
-        <v>614573733.29</v>
+        <v>8584631</v>
       </c>
       <c r="E15">
+        <v>659643046.04</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C16">
         <v>2350686</v>
       </c>
       <c r="D16">
-        <v>545171097.12</v>
+        <v>2369908</v>
       </c>
       <c r="E16">
+        <v>556715088.28</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17">
         <v>3560187</v>
       </c>
       <c r="D17">
-        <v>534811291.14</v>
+        <v>3560187</v>
       </c>
       <c r="E17">
+        <v>553217457.9300001</v>
+      </c>
+      <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C18">
         <v>1592942</v>
       </c>
       <c r="D18">
-        <v>532982463.78</v>
+        <v>1604030</v>
       </c>
       <c r="E18">
+        <v>547359197.2</v>
+      </c>
+      <c r="F18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19">
         <v>8782123</v>
       </c>
       <c r="D19">
-        <v>491008496.93</v>
+        <v>8782123</v>
       </c>
       <c r="E19">
+        <v>535797324.23</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20">
         <v>1753830</v>
       </c>
       <c r="D20">
-        <v>479847887.9999999</v>
+        <v>1753830</v>
       </c>
       <c r="E20">
+        <v>480163577.4</v>
+      </c>
+      <c r="F20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21">
         <v>437795</v>
       </c>
       <c r="D21">
-        <v>478247257.9999999</v>
+        <v>440742</v>
       </c>
       <c r="E21">
+        <v>493075705.08</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22">
         <v>4211576</v>
       </c>
       <c r="D22">
-        <v>477171560.8</v>
+        <v>4249805</v>
       </c>
       <c r="E22">
+        <v>482522859.7</v>
+      </c>
+      <c r="F22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23">
         <v>2177252</v>
       </c>
       <c r="D23">
-        <v>472028233.6</v>
+        <v>2193982</v>
       </c>
       <c r="E23">
+        <v>469512148</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24">
         <v>2071694</v>
       </c>
       <c r="D24">
-        <v>460765462.54</v>
+        <v>2086235</v>
       </c>
       <c r="E24">
+        <v>476704697.5</v>
+      </c>
+      <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C25">
         <v>8291152</v>
       </c>
       <c r="D25">
-        <v>452282341.6</v>
+        <v>8362972</v>
       </c>
       <c r="E25">
+        <v>480452741.4</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26">
         <v>3970835</v>
       </c>
       <c r="D26">
-        <v>443542269.4999999</v>
+        <v>4008685</v>
       </c>
       <c r="E26">
+        <v>452059407.45</v>
+      </c>
+      <c r="F26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C27">
         <v>11152042</v>
       </c>
       <c r="D27">
-        <v>436044842.2</v>
+        <v>11152042</v>
       </c>
       <c r="E27">
+        <v>456787640.32</v>
+      </c>
+      <c r="F27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C28">
         <v>5974132</v>
       </c>
       <c r="D28">
-        <v>435215516.2</v>
+        <v>6041135</v>
       </c>
       <c r="E28">
+        <v>463113409.1</v>
+      </c>
+      <c r="F28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C29">
         <v>8801711</v>
       </c>
       <c r="D29">
-        <v>416672998.74</v>
+        <v>8801711</v>
       </c>
       <c r="E29">
+        <v>424946607.08</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30">
         <v>9923309</v>
       </c>
       <c r="D30">
-        <v>409038796.98</v>
+        <v>9923309</v>
       </c>
       <c r="E30">
+        <v>410824992.6</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C31">
         <v>1033192</v>
       </c>
       <c r="D31">
-        <v>371928456.16</v>
+        <v>1037829</v>
       </c>
       <c r="E31">
+        <v>374479838.0700001</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C32">
         <v>1786770</v>
       </c>
       <c r="D32">
-        <v>350314126.2</v>
+        <v>1805270</v>
       </c>
       <c r="E32">
+        <v>366343441.1</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C33">
         <v>5139397</v>
       </c>
       <c r="D33">
-        <v>349838753.79</v>
+        <v>5196020</v>
       </c>
       <c r="E33">
+        <v>355511688.4</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34">
         <v>6019135</v>
       </c>
       <c r="D34">
-        <v>346160453.85</v>
+        <v>6055533</v>
       </c>
       <c r="E34">
+        <v>373868607.42</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C35">
         <v>3947393</v>
       </c>
       <c r="D35">
-        <v>310659829.1</v>
+        <v>3965173</v>
       </c>
       <c r="E35">
+        <v>320703192.24</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C36">
         <v>2129723</v>
       </c>
       <c r="D36">
-        <v>306850489.84</v>
+        <v>2074163</v>
       </c>
       <c r="E36">
+        <v>308469521.36</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C37">
         <v>11988477</v>
       </c>
       <c r="D37">
-        <v>300431233.62</v>
+        <v>11988477</v>
       </c>
       <c r="E37">
+        <v>292518838.8</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C38">
         <v>4080301</v>
       </c>
       <c r="D38">
-        <v>291700718.49</v>
+        <v>4090153</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>294041099.17</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C39">
         <v>1733217</v>
       </c>
       <c r="D39">
-        <v>288355312.29</v>
+        <v>1750573</v>
       </c>
       <c r="E39">
+        <v>291855530.56</v>
+      </c>
+      <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C40">
         <v>2914657</v>
       </c>
       <c r="D40">
-        <v>261386439.76</v>
+        <v>2921693</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>253369216.96</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C41">
         <v>538836</v>
       </c>
       <c r="D41">
-        <v>260182350.96</v>
+        <v>540136</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>261128749.2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42">
         <v>973754</v>
       </c>
       <c r="D42">
-        <v>248015143.8</v>
+        <v>981730</v>
       </c>
       <c r="E42">
+        <v>254160079.7</v>
+      </c>
+      <c r="F42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43">
         <v>5631272</v>
       </c>
       <c r="D43">
-        <v>247100215.36</v>
+        <v>5927250</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>259435732.5</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C44">
         <v>6182640</v>
       </c>
       <c r="D44">
-        <v>239639126.4</v>
+        <v>6247523</v>
       </c>
       <c r="E44">
+        <v>247901712.64</v>
+      </c>
+      <c r="F44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45">
         <v>6739994</v>
       </c>
       <c r="D45">
-        <v>234416991.32</v>
+        <v>6739994</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>235630190.24</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C46">
         <v>3470404</v>
       </c>
       <c r="D46">
-        <v>224431026.68</v>
+        <v>3482248</v>
       </c>
       <c r="E46">
+        <v>238255408.16</v>
+      </c>
+      <c r="F46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C47">
         <v>2346446</v>
       </c>
       <c r="D47">
-        <v>221434109.02</v>
+        <v>2352110</v>
       </c>
       <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>222533127.1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C48">
         <v>10721759</v>
       </c>
       <c r="D48">
-        <v>220868235.4</v>
+        <v>10776218</v>
       </c>
       <c r="E48">
+        <v>235137076.76</v>
+      </c>
+      <c r="F48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C49">
         <v>6198321</v>
       </c>
       <c r="D49">
-        <v>217437100.68</v>
+        <v>6240896</v>
       </c>
       <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>245953711.36</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C50">
         <v>16577008</v>
       </c>
       <c r="D50">
-        <v>211522622.08</v>
+        <v>16577008</v>
       </c>
       <c r="E50">
+        <v>209864921.28</v>
+      </c>
+      <c r="F50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C51">
         <v>3935339</v>
       </c>
       <c r="D51">
-        <v>192438077.1</v>
+        <v>3935339</v>
       </c>
       <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>192005189.81</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C52">
         <v>27224021</v>
       </c>
       <c r="D52">
-        <v>188934705.74</v>
+        <v>27224021</v>
       </c>
       <c r="E52">
+        <v>190295906.79</v>
+      </c>
+      <c r="F52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C53">
         <v>820330</v>
       </c>
       <c r="D53">
-        <v>188208311.9</v>
+        <v>822310</v>
       </c>
       <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>187963619.8</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C54">
         <v>9075053</v>
       </c>
       <c r="D54">
-        <v>186764590.74</v>
+        <v>9075053</v>
       </c>
       <c r="E54">
+        <v>189214855.05</v>
+      </c>
+      <c r="F54">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C55">
         <v>632866</v>
       </c>
       <c r="D55">
-        <v>170202982.04</v>
+        <v>640806</v>
       </c>
       <c r="E55">
+        <v>173639201.82</v>
+      </c>
+      <c r="F55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C56">
         <v>6036351</v>
       </c>
       <c r="D56">
-        <v>166603287.6</v>
+        <v>6036351</v>
       </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>164068020.18</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C57">
         <v>3337339</v>
       </c>
       <c r="D57">
-        <v>165498641.01</v>
+        <v>3383564</v>
       </c>
       <c r="E57">
+        <v>170227104.84</v>
+      </c>
+      <c r="F57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C58">
         <v>94599</v>
       </c>
       <c r="D58">
-        <v>163290171.87</v>
+        <v>94827</v>
       </c>
       <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>165003721.35</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C59">
         <v>98983</v>
       </c>
       <c r="D59">
-        <v>162332120</v>
+        <v>100968</v>
       </c>
       <c r="E59">
+        <v>166597200</v>
+      </c>
+      <c r="F59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C60">
         <v>8661551</v>
       </c>
       <c r="D60">
-        <v>155821302.49</v>
+        <v>8682463</v>
       </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>154808315.29</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C61">
         <v>1790614</v>
       </c>
       <c r="D61">
-        <v>154798580.3</v>
+        <v>1794938</v>
       </c>
       <c r="E61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>154131326.06</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C62">
         <v>1705928</v>
       </c>
       <c r="D62">
-        <v>147272764.24</v>
+        <v>1744358</v>
       </c>
       <c r="E62">
+        <v>166586189</v>
+      </c>
+      <c r="F62">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C63">
         <v>2078304</v>
       </c>
       <c r="D63">
-        <v>143153579.52</v>
+        <v>2083320</v>
       </c>
       <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>143332416</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C64">
         <v>2411513</v>
       </c>
       <c r="D64">
-        <v>136925708.14</v>
+        <v>2417333</v>
       </c>
       <c r="E64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>135201434.69</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C65">
         <v>240704</v>
       </c>
       <c r="D65">
-        <v>126258876.16</v>
+        <v>244534</v>
       </c>
       <c r="E65">
+        <v>131116685.46</v>
+      </c>
+      <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C66">
         <v>1483610</v>
       </c>
       <c r="D66">
-        <v>123940779.4</v>
+        <v>1531169</v>
       </c>
       <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>135738131.85</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C67">
         <v>538523</v>
       </c>
       <c r="D67">
-        <v>122702465.55</v>
+        <v>548378</v>
       </c>
       <c r="E67">
+        <v>131830071.2</v>
+      </c>
+      <c r="F67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C68">
         <v>232122</v>
       </c>
       <c r="D68">
-        <v>121367308.92</v>
+        <v>233717</v>
       </c>
       <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>121719813.6</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C69">
         <v>917482</v>
       </c>
       <c r="D69">
-        <v>118731345.62</v>
+        <v>936072</v>
       </c>
       <c r="E69">
+        <v>122634792.72</v>
+      </c>
+      <c r="F69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C70">
         <v>1402047</v>
       </c>
       <c r="D70">
-        <v>111434695.56</v>
+        <v>1405431</v>
       </c>
       <c r="E70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>116172926.46</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C71">
         <v>4138761</v>
       </c>
       <c r="D71">
-        <v>99371651.61</v>
+        <v>4480110</v>
       </c>
       <c r="E71">
+        <v>114690816</v>
+      </c>
+      <c r="F71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C72">
         <v>1151312</v>
       </c>
       <c r="D72">
-        <v>99174015.68000001</v>
+        <v>1159222</v>
       </c>
       <c r="E72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>100504547.4</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C73">
         <v>2378904</v>
       </c>
       <c r="D73">
-        <v>98605570.8</v>
+        <v>2384648</v>
       </c>
       <c r="E73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>101442925.92</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C74">
         <v>1137043</v>
       </c>
       <c r="D74">
-        <v>94533755.02</v>
+        <v>1139787</v>
       </c>
       <c r="E74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>95821893.09</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C75">
         <v>336774</v>
       </c>
       <c r="D75">
-        <v>92363637.23999999</v>
+        <v>375586</v>
       </c>
       <c r="E75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>103984739.96</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C76">
         <v>190391</v>
       </c>
       <c r="D76">
-        <v>89830281.62</v>
+        <v>190851</v>
       </c>
       <c r="E76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>91173339.72</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C77">
         <v>8217571</v>
       </c>
       <c r="D77">
-        <v>88174536.83</v>
+        <v>8217571</v>
       </c>
       <c r="E77">
+        <v>83243994.23</v>
+      </c>
+      <c r="F77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C78">
         <v>1552505</v>
       </c>
       <c r="D78">
-        <v>86676354.15000001</v>
+        <v>1556253</v>
       </c>
       <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>86761104.75</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79">
         <v>3980945</v>
       </c>
       <c r="D79">
-        <v>85311651.34999999</v>
+        <v>3990557</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>84160847.13</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C80">
         <v>1170421</v>
       </c>
       <c r="D80">
-        <v>77587208.09</v>
+        <v>1304381</v>
       </c>
       <c r="E80">
+        <v>87197869.85000001</v>
+      </c>
+      <c r="F80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C81">
         <v>8619409</v>
       </c>
       <c r="D81">
-        <v>75506022.84</v>
+        <v>8619409</v>
       </c>
       <c r="E81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>74126917.40000001</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C82">
         <v>535886</v>
       </c>
       <c r="D82">
-        <v>75324136.16</v>
+        <v>537182</v>
       </c>
       <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>76091830.3</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C83">
         <v>31874</v>
       </c>
       <c r="D83">
-        <v>72596184.61</v>
+        <v>32874</v>
       </c>
       <c r="E83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>73916387.2</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C84">
         <v>8508409</v>
       </c>
       <c r="D84">
-        <v>72576728.77</v>
+        <v>8694124</v>
       </c>
       <c r="E84">
+        <v>74247818.96000001</v>
+      </c>
+      <c r="F84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C85">
         <v>22419</v>
       </c>
       <c r="D85">
-        <v>71441057.97</v>
+        <v>23129</v>
       </c>
       <c r="E85">
+        <v>74440917.78999999</v>
+      </c>
+      <c r="F85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C86">
         <v>1322333</v>
       </c>
       <c r="D86">
-        <v>69924969.04000001</v>
+        <v>1325525</v>
       </c>
       <c r="E86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>71644626.25</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C87">
         <v>542942</v>
       </c>
       <c r="D87">
-        <v>68975351.68000001</v>
+        <v>544254</v>
       </c>
       <c r="E87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>69947524.08</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C88">
         <v>252147</v>
       </c>
       <c r="D88">
-        <v>67484623.08</v>
+        <v>260502</v>
       </c>
       <c r="E88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>71450488.56</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C89">
         <v>446083</v>
       </c>
       <c r="D89">
-        <v>65110274.68</v>
+        <v>449148</v>
       </c>
       <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>66711952.44</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C90">
         <v>37492</v>
       </c>
       <c r="D90">
-        <v>64795174.08</v>
+        <v>38737</v>
       </c>
       <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>67438018.04000001</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C91">
         <v>82487</v>
       </c>
       <c r="D91">
-        <v>63797920.41</v>
+        <v>83052</v>
       </c>
       <c r="E91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>65489824.08</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C92">
         <v>1587336</v>
       </c>
       <c r="D92">
-        <v>63144226.08</v>
+        <v>1598241</v>
       </c>
       <c r="E92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>67269963.69</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C93">
         <v>6508316</v>
       </c>
       <c r="D93">
-        <v>61829002</v>
+        <v>6508316</v>
       </c>
       <c r="E93">
+        <v>62414750.44</v>
+      </c>
+      <c r="F93">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C94">
         <v>2313094</v>
       </c>
       <c r="D94">
-        <v>60996288.78</v>
+        <v>2498288</v>
       </c>
       <c r="E94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>67228930.08</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C95">
         <v>1102579</v>
       </c>
       <c r="D95">
-        <v>57598726.96</v>
+        <v>1139089</v>
       </c>
       <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>60531189.46</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C96">
         <v>144842</v>
       </c>
       <c r="D96">
-        <v>56161037.08</v>
+        <v>145837</v>
       </c>
       <c r="E96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>55714109.11</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C97">
         <v>732996</v>
       </c>
       <c r="D97">
-        <v>54674171.64</v>
+        <v>738031</v>
       </c>
       <c r="E97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>55455649.34</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C98">
         <v>1435615</v>
       </c>
       <c r="D98">
-        <v>54174150.94</v>
+        <v>1480615</v>
       </c>
       <c r="E98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>56639355.25</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C99">
         <v>331758</v>
       </c>
       <c r="D99">
-        <v>53758066.32</v>
+        <v>342738</v>
       </c>
       <c r="E99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>56781404.46</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C100">
         <v>108819</v>
       </c>
       <c r="D100">
-        <v>52814213.46</v>
+        <v>109569</v>
       </c>
       <c r="E100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>53216567.61</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C101">
         <v>259858</v>
       </c>
       <c r="D101">
-        <v>52098930.42</v>
+        <v>261643</v>
       </c>
       <c r="E101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>55269467.32</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C102">
         <v>1140257</v>
       </c>
       <c r="D102">
-        <v>51881693.5</v>
+        <v>1148087</v>
       </c>
       <c r="E102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>52088707.19</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C103">
         <v>221776</v>
       </c>
       <c r="D103">
-        <v>51354450.56</v>
+        <v>223301</v>
       </c>
       <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>52346220.42</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C104">
         <v>225782</v>
       </c>
       <c r="D104">
-        <v>49742032.42</v>
+        <v>227332</v>
       </c>
       <c r="E104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>50358584.64</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C105">
         <v>877993</v>
       </c>
       <c r="D105">
-        <v>49255407.3</v>
+        <v>907063</v>
       </c>
       <c r="E105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>54314932.44</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C106">
         <v>184881</v>
       </c>
       <c r="D106">
-        <v>46344120.27</v>
+        <v>186151</v>
       </c>
       <c r="E106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>46453982.05</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C107">
         <v>253524</v>
       </c>
       <c r="D107">
-        <v>46179396.6</v>
+        <v>261924</v>
       </c>
       <c r="E107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>48099723.36</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C108">
         <v>652996</v>
       </c>
       <c r="D108">
-        <v>43664174.98</v>
+        <v>672996</v>
       </c>
       <c r="E108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>44792065.14</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C109">
         <v>622231</v>
       </c>
       <c r="D109">
-        <v>41652143.14</v>
+        <v>641781</v>
       </c>
       <c r="E109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>43711703.91</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C110">
         <v>1514940</v>
       </c>
       <c r="D110">
-        <v>41524505.4</v>
+        <v>1565100</v>
       </c>
       <c r="E110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>43447176</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C111">
         <v>244043</v>
       </c>
       <c r="D111">
-        <v>40337867.47</v>
+        <v>244635</v>
       </c>
       <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>40181298.75</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C112">
         <v>1877228</v>
       </c>
       <c r="D112">
-        <v>40210223.76</v>
+        <v>1939388</v>
       </c>
       <c r="E112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>43500472.84</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C113">
         <v>6320007</v>
       </c>
       <c r="D113">
-        <v>39011103.16</v>
+        <v>6520007</v>
       </c>
       <c r="E113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>41843589.23</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C114">
         <v>164375</v>
       </c>
       <c r="D114">
-        <v>37490650</v>
+        <v>169550</v>
       </c>
       <c r="E114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>38209788</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115">
         <v>7787545</v>
       </c>
       <c r="D115">
-        <v>36809028.26</v>
+        <v>8032545</v>
       </c>
       <c r="E115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>37917462.16</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C116">
         <v>413110</v>
       </c>
       <c r="D116">
-        <v>35498542.3</v>
+        <v>426790</v>
       </c>
       <c r="E116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>37749575.5</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C117">
         <v>88310</v>
       </c>
       <c r="D117">
-        <v>32824827</v>
+        <v>91085</v>
       </c>
       <c r="E117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>33598523.95</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C118">
         <v>1366919</v>
       </c>
       <c r="D118">
-        <v>31726189.99</v>
+        <v>1412189</v>
       </c>
       <c r="E118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>34061998.68</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C119">
         <v>1331762</v>
       </c>
       <c r="D119">
-        <v>31123277.94</v>
+        <v>1340912</v>
       </c>
       <c r="E119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>32986435.2</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C120">
         <v>182497</v>
       </c>
       <c r="D120">
-        <v>30436849.66</v>
+        <v>188222</v>
       </c>
       <c r="E120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>35235158.4</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C121">
         <v>2316093</v>
       </c>
       <c r="D121">
-        <v>29253922.44</v>
+        <v>2388068</v>
       </c>
       <c r="E121">
+        <v>29106902.45</v>
+      </c>
+      <c r="F121">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C122">
         <v>1515267</v>
       </c>
       <c r="D122">
-        <v>29017363.05</v>
+        <v>1518927</v>
       </c>
       <c r="E122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>28479881.25</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C123">
         <v>241785</v>
       </c>
       <c r="D123">
-        <v>28818354.15</v>
+        <v>249795</v>
       </c>
       <c r="E123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>30347594.55</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C124">
         <v>78266</v>
       </c>
       <c r="D124">
-        <v>27993400.22</v>
+        <v>80411</v>
       </c>
       <c r="E124">
+        <v>28934290.13</v>
+      </c>
+      <c r="F124">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C125">
         <v>215425</v>
       </c>
       <c r="D125">
-        <v>27156475.5</v>
+        <v>222200</v>
       </c>
       <c r="E125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>28128298</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C126">
         <v>3826867</v>
       </c>
       <c r="D126">
-        <v>27094218.36</v>
+        <v>3836111</v>
       </c>
       <c r="E126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>27696721.42</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C127">
         <v>901590</v>
       </c>
       <c r="D127">
-        <v>25938744.3</v>
+        <v>931440</v>
       </c>
       <c r="E127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>26918616</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C128">
         <v>480492</v>
       </c>
       <c r="D128">
-        <v>25350757.92</v>
+        <v>495592</v>
       </c>
       <c r="E128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>26152389.84</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C129">
         <v>440440</v>
       </c>
       <c r="D129">
-        <v>24096472.4</v>
+        <v>441504</v>
       </c>
       <c r="E129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>25563081.6</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C130">
         <v>166673</v>
       </c>
       <c r="D130">
-        <v>23739235.39</v>
+        <v>172193</v>
       </c>
       <c r="E130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>24835396.39</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C131">
         <v>650991</v>
       </c>
       <c r="D131">
-        <v>23598423.75</v>
+        <v>785461</v>
       </c>
       <c r="E131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>28308014.44</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C132">
         <v>2560943</v>
       </c>
       <c r="D132">
-        <v>23381409.59</v>
+        <v>2769554</v>
       </c>
       <c r="E132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>25258332.48</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C133">
         <v>4583323</v>
       </c>
       <c r="D133">
-        <v>23374947.3</v>
+        <v>4583323</v>
       </c>
       <c r="E133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>22595782.39</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C134">
         <v>220300</v>
       </c>
       <c r="D134">
-        <v>23041118.6</v>
+        <v>227800</v>
       </c>
       <c r="E134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>22425102.24</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C135">
         <v>676957</v>
       </c>
       <c r="D135">
-        <v>22982690.15</v>
+        <v>698232</v>
       </c>
       <c r="E135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>22971832.8</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C136">
         <v>74770</v>
       </c>
       <c r="D136">
-        <v>22194726.8</v>
+        <v>76630</v>
       </c>
       <c r="E136">
+        <v>23119271</v>
+      </c>
+      <c r="F136">
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C137">
         <v>26276</v>
       </c>
       <c r="D137">
-        <v>21020800</v>
+        <v>27146</v>
       </c>
       <c r="E137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>21853887.3</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C138">
         <v>4210400</v>
       </c>
       <c r="D138">
-        <v>20254055.38</v>
+        <v>4340400</v>
       </c>
       <c r="E138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>22951898.83</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C139">
         <v>274954</v>
       </c>
       <c r="D139">
-        <v>19246780</v>
+        <v>283604</v>
       </c>
       <c r="E139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>20289030.16</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C140">
         <v>1989640</v>
       </c>
       <c r="D140">
-        <v>18642926.8</v>
+        <v>1958895</v>
       </c>
       <c r="E140">
+        <v>19451827.35</v>
+      </c>
+      <c r="F140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C141">
         <v>1400180</v>
       </c>
       <c r="D141">
-        <v>16998185.2</v>
+        <v>1400180</v>
       </c>
       <c r="E141">
+        <v>15976053.8</v>
+      </c>
+      <c r="F141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C142">
         <v>130354</v>
       </c>
       <c r="D142">
-        <v>16947323.54</v>
+        <v>134674</v>
       </c>
       <c r="E142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>17860465.88</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C143">
         <v>510133</v>
       </c>
       <c r="D143">
-        <v>16441586.59</v>
+        <v>550224</v>
       </c>
       <c r="E143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>17970315.84</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C144">
         <v>76579</v>
       </c>
       <c r="D144">
-        <v>15536347.52</v>
+        <v>78979</v>
       </c>
       <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>15951388.63</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C145">
         <v>56737</v>
       </c>
       <c r="D145">
-        <v>13983968.39</v>
+        <v>58612</v>
       </c>
       <c r="E145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>14481266.84</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C146">
         <v>16656</v>
       </c>
       <c r="D146">
-        <v>9373663.68</v>
+        <v>17181</v>
       </c>
       <c r="E146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>9522569.25</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C147">
         <v>424298</v>
       </c>
       <c r="D147">
-        <v>8647794.32</v>
+        <v>424298</v>
       </c>
       <c r="E147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>8710878</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C148">
         <v>818772</v>
       </c>
       <c r="D148">
-        <v>8572542.84</v>
+        <v>818772</v>
       </c>
       <c r="E148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>8916427.08</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C149">
         <v>119123</v>
       </c>
       <c r="D149">
-        <v>8304064.33</v>
+        <v>123068</v>
       </c>
       <c r="E149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>8961811.76</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C150">
         <v>38064</v>
       </c>
       <c r="D150">
-        <v>7915408.8</v>
+        <v>39324</v>
       </c>
       <c r="E150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>8197481.04</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C151">
         <v>281788</v>
       </c>
       <c r="D151">
-        <v>6793908.68</v>
+        <v>281788</v>
       </c>
       <c r="E151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>6892534.48</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C152">
         <v>53804</v>
       </c>
       <c r="D152">
-        <v>6358556.72</v>
+        <v>53804</v>
       </c>
       <c r="E152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>6376312.04</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C153">
         <v>5112</v>
       </c>
       <c r="D153">
-        <v>6004562.22</v>
+        <v>5112</v>
       </c>
       <c r="E153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>5986057.47</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C154">
         <v>73622</v>
       </c>
       <c r="D154">
-        <v>5983173.42</v>
+        <v>73622</v>
       </c>
       <c r="E154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>5954248.47</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C155">
         <v>102744</v>
       </c>
       <c r="D155">
-        <v>5928328.8</v>
+        <v>102744</v>
       </c>
       <c r="E155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>5995112.4</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C156">
         <v>99824</v>
       </c>
       <c r="D156">
-        <v>5716071.19</v>
+        <v>99824</v>
       </c>
       <c r="E156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>5687994.69</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C157">
         <v>21490</v>
       </c>
       <c r="D157">
-        <v>4678158.1</v>
+        <v>21490</v>
       </c>
       <c r="E157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>4682671</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C158">
         <v>215897</v>
       </c>
       <c r="D158">
-        <v>3929325.4</v>
+        <v>462019</v>
       </c>
       <c r="E158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>10201379.52</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C159">
         <v>41379</v>
       </c>
       <c r="D159">
-        <v>2722738.2</v>
+        <v>42679</v>
       </c>
       <c r="E159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>2842421.4</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C160">
         <v>4066</v>
       </c>
       <c r="D160">
-        <v>2140586.36</v>
+        <v>4066</v>
       </c>
       <c r="E160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>2210480.9</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C161">
         <v>18090</v>
       </c>
       <c r="D161">
-        <v>1669039.72</v>
+        <v>18090</v>
       </c>
       <c r="E161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>1656832.44</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C162">
         <v>12621</v>
       </c>
       <c r="D162">
-        <v>1494073.98</v>
+        <v>12621</v>
       </c>
       <c r="E162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>1504423.2</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C163">
         <v>21492</v>
       </c>
       <c r="D163">
-        <v>1468548.36</v>
+        <v>21492</v>
       </c>
       <c r="E163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>1520559</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C164">
         <v>14970</v>
       </c>
       <c r="D164">
-        <v>1436970.3</v>
+        <v>14970</v>
       </c>
       <c r="E164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>1512718.5</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C165">
         <v>135928</v>
       </c>
       <c r="D165">
-        <v>1423166.16</v>
+        <v>135928</v>
       </c>
       <c r="E165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>1463944.56</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C166">
         <v>39220</v>
       </c>
       <c r="D166">
-        <v>1326420.4</v>
+        <v>39220</v>
       </c>
       <c r="E166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>1385642.6</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C167">
         <v>24044</v>
       </c>
       <c r="D167">
-        <v>1263993.08</v>
+        <v>24044</v>
       </c>
       <c r="E167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>1263271.76</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C168">
         <v>122093</v>
       </c>
       <c r="D168">
-        <v>1253283.99</v>
+        <v>122093</v>
       </c>
       <c r="E168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>1255317.51</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C169">
         <v>25157</v>
       </c>
       <c r="D169">
-        <v>1214048.72</v>
+        <v>25157</v>
       </c>
       <c r="E169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>1257169.61</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C170">
         <v>41618</v>
       </c>
       <c r="D170">
-        <v>1159893.66</v>
+        <v>41618</v>
       </c>
       <c r="E170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>1204841.1</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C171">
         <v>8850</v>
       </c>
       <c r="D171">
-        <v>1157156.77</v>
+        <v>8850</v>
       </c>
       <c r="E171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>1136930.81</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C172">
         <v>14586</v>
       </c>
       <c r="D172">
-        <v>1121517.54</v>
+        <v>14586</v>
       </c>
       <c r="E172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>1153460.88</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C173">
         <v>9506</v>
       </c>
       <c r="D173">
-        <v>1081117.38</v>
+        <v>9506</v>
       </c>
       <c r="E173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>1093665.3</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C174">
         <v>7358</v>
       </c>
       <c r="D174">
-        <v>1060039.39</v>
+        <v>7358</v>
       </c>
       <c r="E174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>1061764.9</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C175">
         <v>8819</v>
       </c>
       <c r="D175">
-        <v>1023180.38</v>
+        <v>8819</v>
       </c>
       <c r="E175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>1031382.05</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C176">
         <v>4247</v>
       </c>
       <c r="D176">
-        <v>1015117.94</v>
+        <v>4247</v>
       </c>
       <c r="E176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>1017836.02</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C177">
         <v>17875</v>
       </c>
       <c r="D177">
-        <v>962926.25</v>
+        <v>17875</v>
       </c>
       <c r="E177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>1034605</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C178">
         <v>5536</v>
       </c>
       <c r="D178">
-        <v>906796.8</v>
+        <v>5536</v>
       </c>
       <c r="E178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>894174.72</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C179">
         <v>15429</v>
       </c>
       <c r="D179">
-        <v>246555.42</v>
+        <v>15429</v>
       </c>
       <c r="E179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>265841.67</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C180">
         <v>9900</v>
       </c>
       <c r="D180">
-        <v>240386.76</v>
+        <v>9900</v>
       </c>
       <c r="E180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>245716.65</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C181">
         <v>7804</v>
       </c>
       <c r="D181">
-        <v>219214.36</v>
+        <v>7804</v>
       </c>
       <c r="E181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>242236.16</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C182">
         <v>41875</v>
       </c>
       <c r="D182">
-        <v>192851.81</v>
+        <v>41875</v>
       </c>
       <c r="E182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>207459.98</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B183" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C183">
         <v>5126</v>
       </c>
       <c r="D183">
-        <v>186786.99</v>
+        <v>5126</v>
       </c>
       <c r="E183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>189048.98</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C184">
         <v>3986</v>
       </c>
       <c r="D184">
-        <v>185667.88</v>
+        <v>3986</v>
       </c>
       <c r="E184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>195991.62</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B185" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C185">
         <v>7402</v>
       </c>
       <c r="D185">
-        <v>182085.17</v>
+        <v>7402</v>
       </c>
       <c r="E185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>182834.71</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B186" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C186">
         <v>5337</v>
       </c>
       <c r="D186">
-        <v>176956.49</v>
+        <v>5337</v>
       </c>
       <c r="E186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>176491.57</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B187" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C187">
         <v>2427</v>
       </c>
       <c r="D187">
-        <v>170666.64</v>
+        <v>2427</v>
       </c>
       <c r="E187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>179064.06</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C188">
         <v>28708</v>
       </c>
       <c r="D188">
-        <v>167186.22</v>
+        <v>28708</v>
       </c>
       <c r="E188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>168250.68</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B189" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C189">
         <v>1673</v>
       </c>
       <c r="D189">
-        <v>164924.34</v>
+        <v>1673</v>
       </c>
       <c r="E189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>169692.39</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B190" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C190">
         <v>7200</v>
       </c>
       <c r="D190">
-        <v>161712</v>
+        <v>7200</v>
       </c>
       <c r="E190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>164520</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C191">
         <v>1346</v>
       </c>
       <c r="D191">
-        <v>152169.57</v>
+        <v>1346</v>
       </c>
       <c r="E191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>148724.53</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C192">
         <v>1294</v>
       </c>
       <c r="D192">
-        <v>150284.87</v>
+        <v>1294</v>
       </c>
       <c r="E192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>149246.51</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B193" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C193">
         <v>843</v>
       </c>
       <c r="D193">
-        <v>149718.9</v>
+        <v>843</v>
       </c>
       <c r="E193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>146590.22</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C194">
         <v>845</v>
       </c>
       <c r="D194">
-        <v>145230.15</v>
+        <v>845</v>
       </c>
       <c r="E194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>144985.1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C195">
         <v>6925</v>
       </c>
       <c r="D195">
-        <v>130571.07</v>
+        <v>6925</v>
       </c>
       <c r="E195">
+        <v>127899.19</v>
+      </c>
+      <c r="F195">
         <v>1</v>
       </c>
     </row>
